--- a/artifacts/recipes/new_data/allrecipescom/chineese/chineese_chicken.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/chineese/chineese_chicken.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641479-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Chinese Chicken Main Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641482-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/o4R8bU0uvu4pcMwE8CXJhLShASQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/8536-sweet-and-sour-chicken-i-DDMFS-4x3-675ec4938f8d44bfb0d6fb749b12a694.jpg"
@@ -204,59 +545,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8536/sweet-and-sour-chicken-i/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Sweet and Sour Chicken</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¾ cups water, divided\n\n\n1 (8 ounce) can pineapple chunks, drained (juice reserved)\n\n\n¾ cup white sugar\n\n\n½ cup distilled white vinegar\n\n\n2 drops orange food color\n\n\n¼ cup cornstarch\n\n\n2 ¼ cups self-rising flour\n\n\n2 tablespoons vegetable oil\n\n\n2 tablespoons cornstarch\n\n\n1  egg\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground white pepper\n\n\n1 ½ cups water\n\n\n8  skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n1 quart vegetable oil for frying\n\n\n2  green bell pepper, cut into 1 inch pieces"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¾ cups water, divided\n\n\n1 (8 ounce) can pineapple chunks, drained (juice reserved)\n\n\n¾ cup white sugar\n\n\n½ cup distilled white vinegar\n\n\n2 drops orange food color\n\n\n¼ cup cornstarch\n\n\n2 ¼ cups self-rising flour\n\n\n2 tablespoons vegetable oil\n\n\n2 tablespoons cornstarch\n\n\n1  egg\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground white pepper\n\n\n1 ½ cups water\n\n\n8  skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n1 quart vegetable oil for frying\n\n\n2  green bell pepper, cut into 1 inch pieces'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 1 1/2 cups of water, reserved pineapple juice, sugar, vinegar, and orange food coloring in a medium saucepan. Bring to a boil over medium heat; set aside."},{"recipe_directions":"Mix 1/4 cup cornstarch and 1/4 cup water together in a small bowl until smooth; pour into the sauce, stirring continuously, until slightly thickened."},{"recipe_directions":"Place flour, 2 tablespoons oil, 2 tablespoons cornstarch, egg, salt, and white pepper in a large bowl; gradually whisk in 1 1/2 cups water to make a thick batter."},{"recipe_directions":"Add chicken pieces; stir until well coated."},{"recipe_directions":"Heat oil in a large, deep skillet or wok to 360 degrees F (180 degrees C). Fry chicken pieces in preheated oil until golden, about 10 minutes; remove and drain on paper towels."},{"recipe_directions":"Layer green peppers, pineapple chunks, and cooked chicken pieces on a platter; pour hot sweet and sour sauce over top."},{"recipe_directions":"Serve hot and enjoy!"},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"639\nCalories\n\n\n18g \nFat\n\n\n56g \nCarbs\n\n\n59g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641487-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -270,59 +607,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282044/hot-and-spicy-hunan-style-chicken/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Hot and Spicy Hunan-Style Chicken</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons soy sauce\n\n\n1 tablespoon dry sherry\n\n\n1 tablespoon grated fresh ginger \n\n\n2 large skinless, boneless chicken breasts, cut into bite-sized pieces\n\n\n6  dried red chile peppers, or more to taste\n\n\n1 medium shallot\n\n\n1 medium scallion\n\n\n1 teaspoon anise seed, or more to taste\n\n\n½ cup chicken broth\n\n\n2 tablespoons rice wine vinegar\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon salt\n\n\n4 tablespoons olive oil\n\n\n1 tablespoon cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons soy sauce\n\n\n1 tablespoon dry sherry\n\n\n1 tablespoon grated fresh ginger \n\n\n2 large skinless, boneless chicken breasts, cut into bite-sized pieces\n\n\n6  dried red chile peppers, or more to taste\n\n\n1 medium shallot\n\n\n1 medium scallion\n\n\n1 teaspoon anise seed, or more to taste\n\n\n½ cup chicken broth\n\n\n2 tablespoons rice wine vinegar\n\n\n1 tablespoon white sugar\n\n\n½ teaspoon salt\n\n\n4 tablespoons olive oil\n\n\n1 tablespoon cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk soy sauce, sherry, and ginger together in a bowl and pour into a resealable plastic bag. Add chicken, coat with the marinade, squeeze out excess air, and seal the bag. Marinate in the refrigerator, 15 to 20 minutes."},{"recipe_directions":"While chicken marinates, soak dried chiles in warm water until soft, about 15 minutes."},{"recipe_directions":"Cut chile peppers, shallot, and scallion diagonally into 1-inch pieces."},{"recipe_directions":"Grind anise seed into a powder using a mortar and pestle. Transfer to a bowl and add chicken broth, vinegar, sugar, and salt; mix until well combined."},{"recipe_directions":"Heat olive oil in a skillet over medium to medium-high heat. Add chile peppers and shallot; stir-fry for 30 seconds. Add scallion and stir-fry, 30 seconds more. Add marinade mixture and chicken and stir-fry, 1 to 2 minutes. Pour in chicken broth mixture and mix well."},{"recipe_directions":"Cook over low heat until chicken pieces are tender, no longer pink in the centers, and juices run clear, about 10 minutes. Stir in cornstarch to thicken sauce; serve with chicken."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"581\nCalories\n\n\n33g \nFat\n\n\n20g \nCarbs\n\n\n50g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641491-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9Z6PolRpG0iqrbMFuGJvHLj7EKg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/4537568-abba6f090ca242ce89e4d3b9a0feb866.jpg"
@@ -333,59 +666,55 @@
 Bento Box Chicken Lo Mein</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284999/bento-box-chicken-lo-mein/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bento Box Chicken Lo Mein</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound skinless, boneless chicken breasts, cubed\n\n\n1 medium egg\n\n\n4 teaspoons cornstarch, divided\n\n\n1 tablespoon sesame oil\n\n\n1 (12 ounce) package Chinese egg noodles\n\n\n2 tablespoons vegetable oil, divided\n\n\n3 cups frozen stir-fry vegetables\n\n\n2 tablespoons cold water\n\n\n1 cup chicken broth\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons oyster sauce"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound skinless, boneless chicken breasts, cubed\n\n\n1 medium egg\n\n\n4 teaspoons cornstarch, divided\n\n\n1 tablespoon sesame oil\n\n\n1 (12 ounce) package Chinese egg noodles\n\n\n2 tablespoons vegetable oil, divided\n\n\n3 cups frozen stir-fry vegetables\n\n\n2 tablespoons cold water\n\n\n1 cup chicken broth\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons oyster sauce'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix chicken, egg, 2 teaspoons cornstarch, and sesame oil in a bowl."},{"recipe_directions":"Bring a large pot of water to a boil over high heat. Add noodles and cook until soft, about 4 minutes. Drain and rinse under cold water to stop the cooking."},{"recipe_directions":"Heat 1 tablespoon of vegetable oil in a wok over high heat. Add vegetables and stir-fry until soft, about 3 minutes. Transfer vegetables to a bowl using a slotted spoon."},{"recipe_directions":"Add the remaining vegetable oil to the wok. Add chicken and stir-fry until no longer pink, about 5 minutes. Transfer chicken to a bowl using a slotted spoon."},{"recipe_directions":"Mix the remaining cornstarch and water in a bowl until smooth; add to the wok. Add chicken broth, soy sauce, and oyster sauce, and cook over medium heat 3 minutes or until sauce starts to thicken."},{"recipe_directions":"Add vegetables and chicken back to the wok and stir until sauce is evenly distributed. Turn off heat and let stand 3 minutes. Serve over noodles in a bento box."},{"recipe_directions":"You can use fresh or frozen vegetables. Suggested combination of vegetables include water chestnuts, bell pepper, mushrooms, green onions, broccoli, carrots, bean sprouts, snap peas, bamboo shoots, and baby corn."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"644\nCalories\n\n\n19g \nFat\n\n\n78g \nCarbs\n\n\n42g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641497-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gKIl3dxLJCae2eIeeREKubOS6Os=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6313303-a3475d26d11047b8b18e57f04f53a4ca.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270332/healthy-instant-pot-orange-chicken/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Healthy Instant Pot® Orange Chicken</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup vegetable oil\n\n\n¼ cup cornstarch\n\n\n½ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon Chinese five-spice powder\n\n\n2 (4 ounce) chicken breasts, cut into bite-sized pieces"},{"recipe_ingredients":"⅓ cup freshly squeezed orange juice\n\n\n¼ cup water\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon coconut aminos (soy-free seasoning sauce)\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon sugar\n\n\n1 teaspoon grated garlic\n\n\n1 teaspoon grated ginger"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup vegetable oil\n\n\n¼ cup cornstarch\n\n\n½ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon Chinese five-spice powder\n\n\n2 (4 ounce) chicken breasts, cut into bite-sized pieces'}, {'recipe_ingredients': '⅓ cup freshly squeezed orange juice\n\n\n¼ cup water\n\n\n1 tablespoon white vinegar\n\n\n1 tablespoon coconut aminos (soy-free seasoning sauce)\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon sugar\n\n\n1 teaspoon grated garlic\n\n\n1 teaspoon grated ginger'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot®) and select Saute function. Add oil."},{"recipe_directions":"Combine cornstarch, salt, garlic powder, and Chinese five-spice powder in a bowl. Toss chicken in the mixture to coat and shake off excess."},{"recipe_directions":"Saute coated chicken in the hot oil in the pressure cooker pot until golden brown, about 10 minutes. Remove chicken and allow to drain on a baking sheet lined with paper towels. Clean out the pressure cooker pot."},{"recipe_directions":"Turn pressure cooker on again and select Saute function. Combine orange juice, water, vinegar, coconut aminos, cornstarch, sugar, garlic, and ginger in the pot and cook, whisking regularly, until thickened, 5 to 10 minutes. Add cooked chicken and toss to coat."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"499\nCalories\n\n\n30g \nFat\n\n\n32g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641500-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KlV6zGEGHlAEMjxlII3-WWNr0cc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/9090865-324db45c380c49a18f55c7c1f34e0396.jpg"
@@ -463,59 +788,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281334/instant-pot-chinese-black-pepper-chicken-with-celery/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Instant Pot® Chinese Black Pepper Chicken with Celery</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 medium onion, chopped\n\n\n5 stalks celery, sliced, or more to taste\n\n\n¾ cup chicken broth\n\n\n6 cloves garlic, minced\n\n\n3 tablespoons soy sauce\n\n\n2 tablespoons rice vinegar\n\n\n1 ½ teaspoons minced fresh ginger\n\n\n1 teaspoon coarsely ground pepper\n\n\n1 ½ pounds frozen cubed chicken\n\n\n2 tablespoons sesame oil\n\n\n2 teaspoons water\n\n\n1 ½ teaspoons cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 medium onion, chopped\n\n\n5 stalks celery, sliced, or more to taste\n\n\n¾ cup chicken broth\n\n\n6 cloves garlic, minced\n\n\n3 tablespoons soy sauce\n\n\n2 tablespoons rice vinegar\n\n\n1 ½ teaspoons minced fresh ginger\n\n\n1 teaspoon coarsely ground pepper\n\n\n1 ½ pounds frozen cubed chicken\n\n\n2 tablespoons sesame oil\n\n\n2 teaspoons water\n\n\n1 ½ teaspoons cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot®) and select Saute function. Add onion and celery and cook until soft and translucent, about 5 minutes. Turn off Saute function. Add chicken broth, garlic, soy sauce, rice vinegar, ginger, and pepper; stir to combine. Set frozen chicken on top and do not stir."},{"recipe_directions":"Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 4 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Stir to mix, then stir in sesame oil."},{"recipe_directions":"Select Saute function. Mix water and cornstarch together in a small bowl. Add to the bubbling liquid and stir until sauce has somewhat thickened, 3 to 4 minutes."},{"recipe_directions":"Make sure that the frozen chicken pieces are in separate pieces, not one big frozen block You can of course also use fresh chicken breast, cut into 1 1/2-inch pieces."},{"recipe_directions":"You can substitute another mild, unsweetened vinegar for the rice vinegar."},{"recipe_directions":"Make sure you use coarsely ground black pepper, not fine, or it will be too peppery."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"349\nCalories\n\n\n18g \nFat\n\n\n8g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641503-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wS2EVmZP6CGk-GbPykscmaE4Jxs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/967973-c3b6927a11ca4f128f80a333bb8d98c2.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/168666/china-sun-chicken/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>China Sun Chicken</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n1 pound skinless, boneless chicken breast halves - cut into 1/2 inch pieces\n\n\n2  carrots, julienned\n\n\n2 cloves garlic, pressed\n\n\n1 teaspoon ground ginger\n\n\n4  shallots, chopped\n\n\n1  bell pepper, slivered\n\n\n1 (20 ounce) can pineapple chunks in natural juice, liquid drained and reserved\n\n\n½ cup water\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon white vinegar\n\n\n½ teaspoon red pepper flakes"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n1 pound skinless, boneless chicken breast halves - cut into 1/2 inch pieces\n\n\n2  carrots, julienned\n\n\n2 cloves garlic, pressed\n\n\n1 teaspoon ground ginger\n\n\n4  shallots, chopped\n\n\n1  bell pepper, slivered\n\n\n1 (20 ounce) can pineapple chunks in natural juice, liquid drained and reserved\n\n\n½ cup water\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon white vinegar\n\n\n½ teaspoon red pepper flakes'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a wok or large skillet over medium-high heat; cook the chicken and carrots in the hot oil until the chicken is no longer pink in the center and the carrots are tender, about 5 minutes. Stir in the garlic and ginger; cook another 1 minute. Add the shallots and bell pepper; cook another 1 minute."},{"recipe_directions":"Whisk together 3 tablespoons of the reserved liquid from the canned pineapple chunks along with the pineapple chunks, the water, soy sauce, cornstarch, vinegar, and pepper flakes; stir into the chicken and vegetable mixture and bring to a boil, stirring until the sauce thickens."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"477\nCalories\n\n\n14g \nFat\n\n\n51g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641507-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -594,59 +911,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257933/hot-and-spicy-sichuan-chicken/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Hot and Spicy Sichuan Chicken</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n47 mins\n\n\nTotal Time:\n 1 hr 7 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ (2 pound) whole chicken\n\n\n1 (3/4 inch thick) slice fresh ginger, crushed\n\n\n1 teaspoon Sichuan peppercorns\n\n\n¼ cup soy sauce\n\n\n¼ cup chile oil\n\n\n2 tablespoons white sugar\n\n\n¼ teaspoon monosodium glutamate (MSG)\n\n\n¼ teaspoon Sichuan peppercorn oil\n\n\n6  spring onions (white parts only), cut into 3/4-inch pieces\n\n\n1 teaspoon toasted sesame seeds, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ (2 pound) whole chicken\n\n\n1 (3/4 inch thick) slice fresh ginger, crushed\n\n\n1 teaspoon Sichuan peppercorns\n\n\n¼ cup soy sauce\n\n\n¼ cup chile oil\n\n\n2 tablespoons white sugar\n\n\n¼ teaspoon monosodium glutamate (MSG)\n\n\n¼ teaspoon Sichuan peppercorn oil\n\n\n6  spring onions (white parts only), cut into 3/4-inch pieces\n\n\n1 teaspoon toasted sesame seeds, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil; add chicken and cook for 2 to 3 minutes. Drain and discard water."},{"recipe_directions":"Bring a large pot of fresh water to a boil; add chicken, ginger, and peppercorns. Add more water if needed to cover chicken completely. Cover and cook over high heat until chicken is no longer pink and juices run clear, 35 to 45 minutes. Drain and discard water."},{"recipe_directions":"Horizontally chop chicken into 3/4-inch pieces, cutting through the bone and skin. Vertically chop into 3/4-inch squares; transfer to a bowl."},{"recipe_directions":"Combine soy sauce, chile oil, sugar, MSG, and Sichuan peppercorn oil in a bowl to form a sauce; pour over chicken and toss well. Garnish with spring onions and sesame seeds."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"378\nCalories\n\n\n33g \nFat\n\n\n10g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641511-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a9IF605BVbFkunrn-LW-LRQ2Ywg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1135x0:1137x2):format(webp)/4499731-945a4c5b622c469288af9147d281f59d.jpg"
@@ -659,59 +972,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246922/must-try-hainanese-chicken-rice/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Must-Try Hainanese Chicken Rice</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n 1 hr 32 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n 2 hrs 17 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  whole chicken\n\n\n1  stalk spring onion (Optional)\n\n\n3 cloves garlic, crushed, or to taste\n\n\n1 (1 inch) piece fresh ginger root (Optional)\n\n\n  water to cover\n\n\n  salt to taste"},{"recipe_ingredients":"5 tablespoons light soy sauce\n\n\n1 ½ tablespoons white sugar, or to taste\n\n\n1 tablespoon garlic oil (Optional)\n\n\n1 teaspoon sesame oil"},{"recipe_ingredients":"3 cups uncooked rice, or more to taste\n\n\n3 cloves garlic, minced, or to taste\n\n\n1 (1 inch) piece ginger, crushed (Optional)\n\n\n  salt to taste"},{"recipe_ingredients":"5  red chile peppers, seeded and chopped\n\n\n2  limes, juiced\n\n\n3 cloves garlic\n\n\n1 (1/2 inch) piece ginger (Optional)\n\n\n¼ teaspoon salt\n\n\n1 pinch white sugar, or to taste"},{"recipe_ingredients":"2  limes, juiced\n\n\n3 cloves garlic\n\n\n1 (1 inch) piece young ginger (Optional)\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  whole chicken\n\n\n1  stalk spring onion (Optional)\n\n\n3 cloves garlic, crushed, or to taste\n\n\n1 (1 inch) piece fresh ginger root (Optional)\n\n\n  water to cover\n\n\n  salt to taste'}, {'recipe_ingredients': '5 tablespoons light soy sauce\n\n\n1 ½ tablespoons white sugar, or to taste\n\n\n1 tablespoon garlic oil (Optional)\n\n\n1 teaspoon sesame oil'}, {'recipe_ingredients': '3 cups uncooked rice, or more to taste\n\n\n3 cloves garlic, minced, or to taste\n\n\n1 (1 inch) piece ginger, crushed (Optional)\n\n\n  salt to taste'}, {'recipe_ingredients': '5  red chile peppers, seeded and chopped\n\n\n2  limes, juiced\n\n\n3 cloves garlic\n\n\n1 (1/2 inch) piece ginger (Optional)\n\n\n¼ teaspoon salt\n\n\n1 pinch white sugar, or to taste'}, {'recipe_ingredients': '2  limes, juiced\n\n\n3 cloves garlic\n\n\n1 (1 inch) piece young ginger (Optional)\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Trim chicken of all excess fat, reserving fat."},{"recipe_directions":"Place chicken, spring onion, 3 cloves crushed garlic, and one 1-inch piece ginger in a large pot. Pour in enough water to cover. Bring to a boil; reduce heat to low and simmer, skimming any scum off the surface, until an instant-read thermometer inserted into the thickest part of the thigh, near the bone, reads 165 degrees F (74 degrees C), about 1 hour."},{"recipe_directions":"Remove chicken from the pot, reserving broth. Rub chicken with salt. Chop into pieces and arrange on a serving plate."},{"recipe_directions":"Combine soy sauce, 3 tablespoons reserved chicken broth, 1 1/2 tablespoon sugar, garlic oil, and sesame oil in a small bowl. Drizzle over chicken pieces."},{"recipe_directions":"Melt reserved chicken fat in a large pot over medium heat. Add rice, 3 cloves minced garlic, crushed 1-inch piece ginger, and salt; cook and stir until rice is glossy and fragrant, 2 to 3 minutes."},{"recipe_directions":"Pour enough reserved chicken broth into the pot to cover rice by half an inch. Cover; bring to a boil. Cook until rice is tender and liquid is absorbed, 20 to 25 minutes. Let rice sit, covered, for 5 minutes. Fluff with a fork."},{"recipe_directions":"Combine red chile peppers, juice of 2 limes, 2 tablespoons reserved chicken broth, 3 cloves garlic, one 1/2-inch piece ginger, 1/4 teaspoon salt, and 1 pinch sugar in a blender; blend until garlic chile dip is smooth."},{"recipe_directions":"Combine juice of 2 limes, 2 tablespoons reserved chicken broth, 3 cloves garlic, one 1-inch piece ginger, and 1/8 teaspoon salt in a blender; blend until ginger dip is smooth."},{"recipe_directions":"Serve garlic chile and ginger dips alongside chicken and rice."},{"recipe_directions":"You can also prepare the rice in a rice cooker in step 6."},{"recipe_directions":"The tangy garlic and ginger dips are traditionally part of the package, but you can omit them if you like."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"1047\nCalories\n\n\n30g \nFat\n\n\n129g \nCarbs\n\n\n60g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641514-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5xhPU1rQPTZUq6L0LQsGbZpiwJU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/4573990-874cff47187844e1ad44b91b49192426.jpg"
@@ -724,59 +1033,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282043/hunan-chicken-and-vegetables/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Hunan Chicken and Vegetables</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  dried red pepper pods\n\n\n2 tablespoons soy sauce, or more to taste\n\n\n1 tablespoon chopped green onion\n\n\n1 tablespoon hoisin sauce\n\n\n2 teaspoons chile oil\n\n\n1 ½ teaspoons jarred minced garlic\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon ground ginger\n\n\n1 teaspoon salt\n\n\n½ cup vegetable oil, or as needed\n\n\n1 ½ cups Chicken, broilers or fryers, breast, meat only, raw\n\n\n½ cup water\n\n\n½ cup carrot strips\n\n\n½ cup chopped green bell pepper\n\n\n½ cup coarsely chopped onion\n\n\n½ cup baby corn, drained\n\n\n½ cup sliced water chestnuts, drained\n\n\n½ cup sliced bamboo shoots, drained\n\n\n2 cups warm cooked rice"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  dried red pepper pods\n\n\n2 tablespoons soy sauce, or more to taste\n\n\n1 tablespoon chopped green onion\n\n\n1 tablespoon hoisin sauce\n\n\n2 teaspoons chile oil\n\n\n1 ½ teaspoons jarred minced garlic\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon ground ginger\n\n\n1 teaspoon salt\n\n\n½ cup vegetable oil, or as needed\n\n\n1 ½ cups Chicken, broilers or fryers, breast, meat only, raw\n\n\n½ cup water\n\n\n½ cup carrot strips\n\n\n½ cup chopped green bell pepper\n\n\n½ cup coarsely chopped onion\n\n\n½ cup baby corn, drained\n\n\n½ cup sliced water chestnuts, drained\n\n\n½ cup sliced bamboo shoots, drained\n\n\n2 cups warm cooked rice'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix pepper pods, soy sauce, green onion, hoisin sauce, chile oil, garlic, sugar, ginger, and salt for sauce together in a bowl; set aside."},{"recipe_directions":"Heat about 1 inch vegetable oil in a wok over medium-high heat. Add chicken; stir and saute until no longer pink, about 3 minutes. Remove chicken with a slotted spoon and set on a plate. Pour hot oil into a container and discard when cool."},{"recipe_directions":"Add water to the wok and bring to a boil. Add carrots, bell pepper, onion, corn, water chestnuts, and bamboo shoots; cook and stir for about 1 minute. Remove with a slotted spoon to a bowl. Pour out and discard any remaining water."},{"recipe_directions":"Pour the reserved sauce into the wok. Stir and heat over medium heat. Add chicken and vegetables to the sauce; stir until well coated. Remove pepper pods and serve over cooked rice."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"409\nCalories\n\n\n11g \nFat\n\n\n56g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641517-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8NnGnmlrRL1O_LtLrxzMAMVJ7Q0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8895-4d8f76498c104e0aabad0cf7af632a05.jpg"
@@ -789,59 +1094,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/51039/chicken-vicious/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Chicken Vicious</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons vegetable oil\n\n\n4  skinless, boneless chicken breast halves - cut into 1 inch pieces\n\n\n1 ½ cups distilled white vinegar\n\n\n1 cup white sugar\n\n\n½ cup soy sauce\n\n\n1 tablespoon red pepper flakes, or to taste\n\n\n2 tablespoons garlic powder, or to taste\n\n\n1 tablespoon onion powder, or to taste\n\n\n½ teaspoon ground ginger\n\n\n1 (8 ounce) package button mushrooms, sliced\n\n\n1 cup frozen green peas\n\n\n3  green onions, chopped\n\n\n3 teaspoons cornstarch\n\n\n2 tablespoons cold water"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons vegetable oil\n\n\n4  skinless, boneless chicken breast halves - cut into 1 inch pieces\n\n\n1 ½ cups distilled white vinegar\n\n\n1 cup white sugar\n\n\n½ cup soy sauce\n\n\n1 tablespoon red pepper flakes, or to taste\n\n\n2 tablespoons garlic powder, or to taste\n\n\n1 tablespoon onion powder, or to taste\n\n\n½ teaspoon ground ginger\n\n\n1 (8 ounce) package button mushrooms, sliced\n\n\n1 cup frozen green peas\n\n\n3  green onions, chopped\n\n\n3 teaspoons cornstarch\n\n\n2 tablespoons cold water'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large heavy skillet over high heat. Add chicken pieces, and fry, stirring, until browned. Pour in the vinegar, soy sauce, and sugar; stirring to dissolve sugar. Season with red pepper flakes, garlic powder, onion powder, and ginger. Reduce heat to low, cover, and simmer for 15 minutes. Taste the sauce at this point and adjust seasoning to taste. The sauce should be very sweet. If it is too tart, add more sugar; if it is too sweet, add more vinegar."},{"recipe_directions":"Once the sauce is to your liking, add the mushrooms, peas, and green onions. Simmer gently over low heat for another 5 minutes, until the mushrooms shrink a bit. Stir together the cornstarch and water, and stir it into the sauce. Continue to simmer until it reaches the desired thickness."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"442\nCalories\n\n\n5g \nFat\n\n\n68g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641523-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/A0huLuMN-5JzBwtXHI4kcM84sHY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/368238-aad2cc6be7694fa68fca902aac4720d8.jpg"
@@ -852,59 +1153,55 @@
 Crispy Sweet and Sour Chicken</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282323/crispy-sweet-and-sour-chicken/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Crispy Sweet and Sour Chicken</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large egg yolks\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste\n\n\n3 pounds skinless, boneless chicken breast, cut into bite-sized pieces"},{"recipe_ingredients":"3 large egg whites\n\n\n1 cup water\n\n\n1 cup cornstarch\n\n\n1 cup all-purpose flour"},{"recipe_ingredients":"1 cup hot water\n\n\n¼ cup white sugar\n\n\n3 tablespoons sweet rice wine\n\n\n2 tablespoons vinegar\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon chicken bouillon granules\n\n\n¼ teaspoon salt\n\n\n1 tablespoon vegetable oil, or as needed\n\n\n1 medium bell pepper, chopped\n\n\n2 cloves garlic, minced\n\n\n1 (8 ounce) can pineapple chunks, drained\n\n\n2 tablespoons sesame oil\n\n\n1 teaspoon sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large egg yolks\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon salt\n\n\n  ground black pepper to taste\n\n\n3 pounds skinless, boneless chicken breast, cut into bite-sized pieces'}, {'recipe_ingredients': '3 large egg whites\n\n\n1 cup water\n\n\n1 cup cornstarch\n\n\n1 cup all-purpose flour'}, {'recipe_ingredients': '1 cup hot water\n\n\n¼ cup white sugar\n\n\n3 tablespoons sweet rice wine\n\n\n2 tablespoons vinegar\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon soy sauce\n\n\n1 teaspoon chicken bouillon granules\n\n\n¼ teaspoon salt\n\n\n1 tablespoon vegetable oil, or as needed\n\n\n1 medium bell pepper, chopped\n\n\n2 cloves garlic, minced\n\n\n1 (8 ounce) can pineapple chunks, drained\n\n\n2 tablespoons sesame oil\n\n\n1 teaspoon sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk egg yolks, soy sauce, cornstarch, salt, and pepper for marinade together in a bowl and pour into a resealable plastic bag. Add chicken, coat with the marinade, squeeze out excess air, and seal the bag. Marinate in the refrigerator for at least 20 minutes."},{"recipe_directions":"Beat egg whites for coating in a bowl until foamy. Add water, then cornstarch, then flour, mixing completely after each addition."},{"recipe_directions":"Combine hot water, sugar, rice wine, vinegar, cornstarch, soy sauce, bouillon granules, and salt for glaze in a bowl."},{"recipe_directions":"Remove chicken from the refrigerator. Dip each piece in coating."},{"recipe_directions":"Heat vegetable oil in a wok over medium-high heat until hot. Add chicken and cook in small batches until crispy, about 5 minutes per batch. Remove chicken to a plate and drain oil from the wok."},{"recipe_directions":"Add bell pepper and garlic to the wok and stir-fry until tender, about 3 minutes. Remove from the wok onto a separate dish."},{"recipe_directions":"Add pineapple chunks to the wok. Stir the reserved glaze and pour over pineapple. Simmer until sauce thickens, 2 to 3 minutes."},{"recipe_directions":"Add chicken and bell pepper mixture back to the wok; toss everything together. Drizzle sesame oil over top, stir, and sprinkle with sesame seeds."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"442\nCalories\n\n\n11g \nFat\n\n\n41g \nCarbs\n\n\n40g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641528-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -918,59 +1215,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257935/chinese-chicken-and-ginger-steamed-soup-dumplings/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Chinese Chicken and Ginger Steamed Soup Dumplings</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n11 mins\n\n\nAdditional Time:\n 4 hrs 25 mins\n\n\nTotal Time:\n 5 hrs 36 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup chicken stock, or more if needed\n\n\n1 teaspoon agar-agar flakes\n\n\n1 piece fresh ginger root, peeled\n\n\n1  spring onion, sliced\n\n\n¾ cup warm water\n\n\n9 ounces ground chicken\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons cooking wine\n\n\n1 teaspoon sesame oil\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon freshly ground black pepper"},{"recipe_ingredients":"1 ¾ cups all-purpose flour\n\n\n⅔ cup warm water\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup chicken stock, or more if needed\n\n\n1 teaspoon agar-agar flakes\n\n\n1 piece fresh ginger root, peeled\n\n\n1  spring onion, sliced\n\n\n¾ cup warm water\n\n\n9 ounces ground chicken\n\n\n2 tablespoons soy sauce\n\n\n2 teaspoons cooking wine\n\n\n1 teaspoon sesame oil\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon freshly ground black pepper'}, {'recipe_ingredients': '1 ¾ cups all-purpose flour\n\n\n⅔ cup warm water\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken stock and agar-agar flakes in a saucepan over low heat; cook and stir until agar-agar is dissolved, 1 to 2 minutes. Refrigerate and chill and until set, 15 to 30 minutes."},{"recipe_directions":"Slightly smash ginger with the blade of a broad knife to bring out flavor. Place ginger and spring onion in 3/4 cup warm water in a bowl; rub with your fingers to extract the flavor of the ginger and onion into the water. The water will turn slightly green. Drain and let water cool."},{"recipe_directions":"Mix chicken, soy sauce, cooking wine, sesame oil, sugar, and black pepper together in a bowl. Gradually mix in the cooled ginger-spring onion water."},{"recipe_directions":"Mince the agar mixture and stir into chicken mixture. Cover and chill in the refrigerator for at least 4 hours."},{"recipe_directions":"Place flour in a large bowl; stir in 2/3 cup warm water and vegetable oil. Mix until a smooth dough forms; cover with plastic wrap and let stand for 10 minutes. Cut dough into small pieces and roll into balls; flatten into rounds that are slightly thicker in the center."},{"recipe_directions":"Spoon chicken mixture into the center of each piece of dough. Draw up the sides to form a bag shape and twist to seal."},{"recipe_directions":"Place in a bamboo steamer. Steam in a skillet filled with about 1 inch of water over high heat until chicken is no longer pink in the center, 10 to 15 minutes."},{"recipe_directions":"Add more or less water to the dough according to the humidity. The right amount of water makes the perfect buns. Practice makes perfect!"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n5g \nFat\n\n\n29g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641532-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/S1oIh6aJYOw8HeEChztdsXBr6zA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/856254-858315ce39584303bf63b44b9929fb01.jpg"
@@ -983,59 +1276,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/169582/mochiko-asian-fried-chicken/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Mochiko Asian Fried Chicken</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 50 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  eggs\n\n\n¼ cup cornstarch\n\n\n¼ cup white sugar\n\n\n5 cloves garlic, minced\n\n\n½ cup sweet rice flour (mochiko)\n\n\n4 teaspoons salt\n\n\n4  green onions, chopped\n\n\n¼ cup oyster sauce\n\n\n5 pounds boneless chicken thighs, cut in half\n\n\n2 cups vegetable oil, for deep frying"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  eggs\n\n\n¼ cup cornstarch\n\n\n¼ cup white sugar\n\n\n5 cloves garlic, minced\n\n\n½ cup sweet rice flour (mochiko)\n\n\n4 teaspoons salt\n\n\n4  green onions, chopped\n\n\n¼ cup oyster sauce\n\n\n5 pounds boneless chicken thighs, cut in half\n\n\n2 cups vegetable oil, for deep frying'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine eggs, cornstarch, sugar, garlic, rice flour, salt, green onions, and oyster sauce in a large bowl. Mix well. Stir in the chicken thighs, making sure to coat evenly. Cover and refrigerate overnight. Remove from refrigerator about 10 minutes prior to frying."},{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 375 degrees F (190 degrees C)."},{"recipe_directions":"Cook chicken in the hot oil in batches, until golden brown and no longer pink inside."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"877\nCalories\n\n\n69g \nFat\n\n\n20g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641537-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4zpJzWuMhPbrjecvxBndMwM5ls4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/4529075-a7222e7922034cebbce6bcc2c708c88e.jpg"
@@ -1048,59 +1337,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/155363/chicken-singapore-noodles/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Chicken Singapore Noodles</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  dry Chinese egg noodle nests\n\n\n¼ cup peanut oil\n\n\n6 cloves garlic, minced\n\n\n2 tablespoons slivered fresh ginger\n\n\n2 teaspoons crushed red pepper flakes\n\n\n1 pound skinless, boneless chicken breast halves\n\n\n⅓ cup green onions, chopped\n\n\n⅔ cup julienned carrot\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n2 (15 ounce) cans whole straw mushrooms, drained\n\n\n¼ cup peanut butter\n\n\n¼ cup oyster sauce\n\n\n3 tablespoons curry powder\n\n\n2 teaspoons soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  dry Chinese egg noodle nests\n\n\n¼ cup peanut oil\n\n\n6 cloves garlic, minced\n\n\n2 tablespoons slivered fresh ginger\n\n\n2 teaspoons crushed red pepper flakes\n\n\n1 pound skinless, boneless chicken breast halves\n\n\n⅓ cup green onions, chopped\n\n\n⅔ cup julienned carrot\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n2 (15 ounce) cans whole straw mushrooms, drained\n\n\n¼ cup peanut butter\n\n\n¼ cup oyster sauce\n\n\n3 tablespoons curry powder\n\n\n2 teaspoons soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly-salted water to a rolling boil; add the egg noodle nests and return to a boil. Turn off the heat and let stand for 5 minutes; drain and set aside."},{"recipe_directions":"Heat the peanut oil in a wok over high heat. Stir in the garlic, ginger, and red pepper flakes; cook a few seconds until the garlic begins to turn golden. Add the chicken, green onions, and carrots. Cook and stir until the chicken is no longer pink, about 5 minutes. Stir in the water chestnuts, mushrooms, peanut butter, oyster sauce, curry powder, and soy sauce until the peanut butter has dissolved into the sauce."},{"recipe_directions":"Stir the noodles into the chicken mixture; cover and reduce heat to warm or very low. Let stand 10 to 15 minutes for the noodles to absorb some of the sauce."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"413\nCalories\n\n\n18g \nFat\n\n\n42g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641542-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qGUyv7GLtBz5rcAHCVPB9UTz6pw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/964343-8750fd04de7b41b8920d8edaa3b1819d.jpg"
@@ -1113,59 +1398,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/174960/ginger-chicken-with-cashews/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Ginger Chicken with Cashews</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups chicken broth\n\n\n½ cup soy sauce\n\n\n1 tablespoon cornstarch\n\n\n¾ teaspoon ground ginger\n\n\n¾ teaspoon brown sugar\n\n\n¼ cup cornstarch\n\n\n1 ½ teaspoons ground ginger\n\n\n¼ teaspoon curry powder\n\n\n2 pounds skinless, boneless chicken breast meat - cut into cubes\n\n\n3 tablespoons extra-virgin olive oil\n\n\n1 tablespoon sesame oil\n\n\n3  green onions, chopped\n\n\n1  bell pepper, chopped\n\n\n1 teaspoon sesame seeds\n\n\n½ cup cashews"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups chicken broth\n\n\n½ cup soy sauce\n\n\n1 tablespoon cornstarch\n\n\n¾ teaspoon ground ginger\n\n\n¾ teaspoon brown sugar\n\n\n¼ cup cornstarch\n\n\n1 ½ teaspoons ground ginger\n\n\n¼ teaspoon curry powder\n\n\n2 pounds skinless, boneless chicken breast meat - cut into cubes\n\n\n3 tablespoons extra-virgin olive oil\n\n\n1 tablespoon sesame oil\n\n\n3  green onions, chopped\n\n\n1  bell pepper, chopped\n\n\n1 teaspoon sesame seeds\n\n\n½ cup cashews'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the chicken broth, soy sauce, 1 tablespoon cornstarch, 3/4 teaspoon ground ginger, and brown sugar in a bowl."},{"recipe_directions":"Combine 1/4 cup cornstarch, 1 1/2 teaspoons ground ginger, and curry powder in a large, sealable plastic bag and shake to mix. Add the chicken to the bag and toss until well coated."},{"recipe_directions":"Heat the olive oil and sesame oil in a wok or large skillet over high heat. Cook and stir the chicken in the hot oil until golden brown, 3 to 5 minutes. Add the green onions and bell pepper to the pan, cooking another 2 to 3 minutes. Stir the sauce mixture into the chicken and vegetable mixture; reduce heat to medium. Sprinkle sesame seeds over the dish and bring to a boil; allow to boil until the sauce thickens, 3 to 5 minutes. Remove from heat; add cashews and toss to serve."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"387\nCalories\n\n\n19g \nFat\n\n\n15g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641547-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LOlt5wC-OW0IUVMheAneWXPAzOE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3400778-e1581eb1a3594b9f903c4eba19a2acea.jpg"
@@ -1178,59 +1459,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15352/sesame-chicken/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sesame Chicken</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons cornstarch\n\n\n2 tablespoons rice wine\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon soy sauce\n\n\n1 dash hot pepper sauce\n\n\n1 tablespoon grated fresh ginger \n\n\n1 clove crushed garlic\n\n\n1 pound skinless, boneless chicken breast halves, cut into bite size pieces\n\n\n2 tablespoons sesame seeds\n\n\n1 tablespoon sesame oil\n\n\n2 tablespoons vegetable oil\n\n\n4 ounces fresh mushrooms, quartered\n\n\n1  green bell pepper, sliced\n\n\n4  green onions, sliced diagonally into 1/2 inch pieces"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons cornstarch\n\n\n2 tablespoons rice wine\n\n\n1 tablespoon lemon juice\n\n\n1 tablespoon soy sauce\n\n\n1 dash hot pepper sauce\n\n\n1 tablespoon grated fresh ginger \n\n\n1 clove crushed garlic\n\n\n1 pound skinless, boneless chicken breast halves, cut into bite size pieces\n\n\n2 tablespoons sesame seeds\n\n\n1 tablespoon sesame oil\n\n\n2 tablespoons vegetable oil\n\n\n4 ounces fresh mushrooms, quartered\n\n\n1  green bell pepper, sliced\n\n\n4  green onions, sliced diagonally into 1/2 inch pieces'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To Make Marinade: In a nonporous dish or bowl blend cornstarch with wine or sherry; then stir in lemon juice, soy sauce, hot pepper sauce, ginger and garlic. Blend together and stir in chicken strips. Cover dish and refrigerate to marinate for 3 to 4 hours."},{"recipe_directions":"In a wok or large skillet, place sesame seeds and dry-fry over medium heat, shaking the wok, until the seeds are a golden brown color. Remove seeds and set aside."},{"recipe_directions":"To same wok or skillet add sesame oil and vegetable oil and heat slowly. Drain chicken, reserving marinade, and stir-fry in wok a few pieces at a time, until browned. Remove chicken with a slotted spoon and set aside."},{"recipe_directions":"Add mushrooms and green bell pepper to same wok or skillet and stir-fry for 2 to 3 minutes. Add the scallions and stir-fry 1 minute more. Return chicken to wok, together with reserved marinade, and stir over medium high heat for another 2 to 3 minutes, or until the ingredients are evenly coated with the glaze. Sprinkle toasted sesame seeds on top and serve immediately."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"279\nCalories\n\n\n14g \nFat\n\n\n7g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641551-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mdmkQfjNdLc1DveK0BQAgJLN9iA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/997068-48ad6e996b1f449ab0547d6d11b25978.jpg"
@@ -1243,59 +1520,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282322/sweet-and-sour-chicken-with-pineapple/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sweet and Sour Chicken with Pineapple</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound skinless, boneless chicken thighs, cubed\n\n\n¼ cup shoyu (soy sauce)\n\n\n½ cup oil for frying, or as needed\n\n\n½ cup all-purpose flour\n\n\n5 tablespoons cornstarch, divided\n\n\n⅛ teaspoon ground black pepper\n\n\n¾ cup white sugar\n\n\n1 cup water, divided\n\n\n½ cup white vinegar\n\n\n½ large yellow onion, cut into chunks\n\n\n1 (8 ounce) can pineapple chunks, drained\n\n\n1 large green bell pepper, cut into chunks"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound skinless, boneless chicken thighs, cubed\n\n\n¼ cup shoyu (soy sauce)\n\n\n½ cup oil for frying, or as needed\n\n\n½ cup all-purpose flour\n\n\n5 tablespoons cornstarch, divided\n\n\n⅛ teaspoon ground black pepper\n\n\n¾ cup white sugar\n\n\n1 cup water, divided\n\n\n½ cup white vinegar\n\n\n½ large yellow onion, cut into chunks\n\n\n1 (8 ounce) can pineapple chunks, drained\n\n\n1 large green bell pepper, cut into chunks'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken and soy sauce in a glass or ceramic bowl and let marinate in the refrigerator for 1 hour."},{"recipe_directions":"Remove chicken from the marinade and shake off excess. Discard the remaining marinade."},{"recipe_directions":"Heat oil in a large wok to 350 degrees F (175 degrees C)."},{"recipe_directions":"While the oil is heating, whisk flour, 2 tablespoons cornstarch, and black pepper together in a shallow dish. Dredge chicken in flour mixture."},{"recipe_directions":"Fry chicken in batches in the hot oil until golden brown and crispy and no longer pink in the centers, 5 to 8 minutes per batch. Remove to a plate."},{"recipe_directions":"Discard any oil remaining in the wok. Return the wok to medium-high heat and add sugar, 1/2 cup water, and vinegar. Heat through, stirring frequently until sugar dissolves. Add onion and continue cooking for 1 minute."},{"recipe_directions":"Meanwhile, mix remaining cornstarch into remaining 1/2 cup water and stir until completely mixed. Add to vinegar mixture in the pan along with pineapples and bell pepper chunks. Continue cooking until sauce thickens and bell peppers are just cooked, about 3 minutes. Add chicken and toss to coat."},{"recipe_directions":"To give it more of a restaurant look, add red food coloring to the sauce before you add the chicken."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of soy sauce. The actual amount of soy sauce consumed will vary."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"318\nCalories\n\n\n7g \nFat\n\n\n48g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641560-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Az_4MHW6-RULg89ASQXV0TV-pJo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/4547387-5a5c98b4c3414a2fa60eaedbb072a81a.jpg"
@@ -1308,59 +1581,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258678/salt-n-pepper-chicken/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Salt 'n Pepper Chicken</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n2 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n37 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg\n\n\n2  spring onions, finely chopped\n\n\n5 slices fresh ginger\n\n\n1 teaspoon Shaoxing wine (Chinese rice wine)\n\n\n1 teaspoon soy sauce\n\n\n1 clove garlic, crushed\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground white pepper\n\n\n1 ½ pounds skinless, boneless chicken breasts, cut into small pieces\n\n\n1 cup sweet potato starch\n\n\n3 tablespoons sweet potato starch\n\n\n1 quart vegetable oil for frying\n\n\n2 cups lettuce leaves\n\n\n1 tablespoon salt\n\n\n1 tablespoon ground white pepper"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n2  spring onions, finely chopped\n\n\n5 slices fresh ginger\n\n\n1 teaspoon Shaoxing wine (Chinese rice wine)\n\n\n1 teaspoon soy sauce\n\n\n1 clove garlic, crushed\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground white pepper\n\n\n1 ½ pounds skinless, boneless chicken breasts, cut into small pieces\n\n\n1 cup sweet potato starch\n\n\n3 tablespoons sweet potato starch\n\n\n1 quart vegetable oil for frying\n\n\n2 cups lettuce leaves\n\n\n1 tablespoon salt\n\n\n1 tablespoon ground white pepper'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk egg, spring onions, ginger, Shaoxing wine, soy sauce, garlic, sugar, 1/2 teaspoon salt, and 1/2 teaspoon white pepper together in a bowl. Mix in chicken. Let marinate for 20 minutes."},{"recipe_directions":"Pour 1 cup plus 2 tablespoons sweet potato starch into a shallow bowl."},{"recipe_directions":"Heat oil to 340 degrees F (170 degrees C) in a large saucepan. Dredge chicken pieces in sweet potato starch; drop gently into the hot oil in batches. Cook until golden on the outside and no longer pink in the center, 2 to 3 minutes per batch. Transfer to a paper towel-lined plate using a slotted spoon."},{"recipe_directions":"Arrange lettuce leaves on a large serving plate. Place fried chicken on the lettuce leaves. Mix 1 tablespoon salt and 1 tablespoon white pepper together in a small bowl; sprinkle over chicken."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"405\nCalories\n\n\n19g \nFat\n\n\n30g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641565-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WixiyLLYXWW2bUNK2VuEO8ioxnA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1199x0:1201x2):format(webp)/6973645-ecca36d0136e4852b5237b855ac12bdd.jpg"
@@ -1373,59 +1642,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275592/chongqing-chicken/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Chongqing Chicken</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon cooking sherry\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons cornstarch\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 pound boneless chicken thighs, cut into bite-sized pieces"},{"recipe_ingredients":"½ cup chicken stock\n\n\n1 tablespoon garlic chile paste\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon balsamic vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 teaspoon sesame seeds\n\n\n3 tablespoons oil, divided\n\n\n½ cup dried red chile peppers\n\n\n1 teaspoon freshly cracked pepper\n\n\n2 teaspoons grated fresh ginger \n\n\n2 cloves garlic, pressed\n\n\n½ teaspoon salt\n\n\n2  scallions, sliced, white and green parts separated\n\n\n½ cup dry roasted peanuts (Optional)\n\n\n1 teaspoon sesame seeds, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon cooking sherry\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons cornstarch\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 pound boneless chicken thighs, cut into bite-sized pieces'}, {'recipe_ingredients': '½ cup chicken stock\n\n\n1 tablespoon garlic chile paste\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon balsamic vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon cornstarch\n\n\n1 teaspoon sesame seeds\n\n\n3 tablespoons oil, divided\n\n\n½ cup dried red chile peppers\n\n\n1 teaspoon freshly cracked pepper\n\n\n2 teaspoons grated fresh ginger \n\n\n2 cloves garlic, pressed\n\n\n½ teaspoon salt\n\n\n2  scallions, sliced, white and green parts separated\n\n\n½ cup dry roasted peanuts (Optional)\n\n\n1 teaspoon sesame seeds, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix cooking sherry, soy sauce, cornstarch, salt and pepper for the marinade in a bowl. Add chicken pieces and set aside to marinate."},{"recipe_directions":"Combine chicken stock, chile paste, soy sauce, balsamic vinegar, sugar, and cornstarch for the sauce in a bowl. Stir until well combined, add sesame seeds, and set aside."},{"recipe_directions":"Heat 1 tablespoon oil in a skillet over medium heat. Add chile peppers and cook until they turn dark red, 1 to 2 minutes. Remove from skillet and set aside."},{"recipe_directions":"Add remaining 2 tablespoons oil to the skillet and fry chicken pieces until lightly browned, about 5 minutes. Add cracked pepper, ginger, garlic, salt, white parts of scallions, and peanuts. Fry an additional 1 to 2 minutes. Add reserved chiles and sauce. Cook and stir until mixture has thickened or desired consistency is reached, about 5 minutes. Garnish with additional sesame seeds and green parts of scallions."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"914\nCalories\n\n\n64g \nFat\n\n\n36g \nCarbs\n\n\n51g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641573-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RTSiMrQCHJcByCGde0kB7hP2fnM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1378x0:1380x2):format(webp)/7336072-349c13d48b9943daa97de7ad27f1326d.jpg"
@@ -1438,59 +1703,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/63362/szechwan-chicken/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Szechwan Chicken</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup soy sauce\n\n\n½ cup cooking sherry\n\n\n¾ teaspoon white sugar\n\n\n¾ teaspoon ground ginger\n\n\n2 tablespoons cornstarch\n\n\n¾ teaspoon crushed red pepper\n\n\n½ teaspoon garlic powder\n\n\n2 pounds skinless, boneless chicken breasts, cut into bite-size pieces\n\n\n1 tablespoon vegetable oil\n\n\n1 large green bell pepper, sliced\n\n\n1 large onion, quartered\n\n\n½ cup whole cashews"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup soy sauce\n\n\n½ cup cooking sherry\n\n\n¾ teaspoon white sugar\n\n\n¾ teaspoon ground ginger\n\n\n2 tablespoons cornstarch\n\n\n¾ teaspoon crushed red pepper\n\n\n½ teaspoon garlic powder\n\n\n2 pounds skinless, boneless chicken breasts, cut into bite-size pieces\n\n\n1 tablespoon vegetable oil\n\n\n1 large green bell pepper, sliced\n\n\n1 large onion, quartered\n\n\n½ cup whole cashews'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the soy sauce, sherry, sugar, ginger, cornstarch, crushed red pepper, and garlic powder in a large glass or ceramic bowl. Add the chicken and toss to evenly coat. Cover the bowl with plastic wrap, and marinate in the refrigerator for 1 to 2 hours."},{"recipe_directions":"Heat the vegetable oil in a skillet over medium heat. Stir in the bell pepper and onion; cook and stir until the onion has softened and turned translucent, about 5 minutes. Place onion and bell pepper on a plate and set aside. Reduce heat to medium-low, stir chicken and marinade into the same skillet. Cook the chicken breasts until no longer pink in the center and the juices run clear, about 15 minutes. Stir in cashews and cook for 1 to 2 minutes. Stir in the onion and bell pepper, cooking until heated through."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"315\nCalories\n\n\n10g \nFat\n\n\n16g \nCarbs\n\n\n39g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641577-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wKtv_FXIp64x6qNXDjYSQDrOlxs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3369740-0836b96562c64268bbfe6c73804a8ad0.jpg"
@@ -1503,59 +1764,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/92739/fiery-pepper-chicken/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Fiery Pepper Chicken</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon Chinese cooking wine\n\n\n½ teaspoon salt\n\n\n½ pound boneless chicken, cut into 1/2 inch cubes\n\n\n¼ cup cornstarch, or as needed\n\n\n3 cups peanut oil for frying\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n2  green onions, julienned\n\n\n2  long, green chilies - cut into 1/2-inch pieces\n\n\n2 cups dried chilies, chopped\n\n\n2 tablespoons Szechuan peppercorns\n\n\n2 teaspoons soy sauce\n\n\n2 teaspoons Chinese cooking wine\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon Chinese cooking wine\n\n\n½ teaspoon salt\n\n\n½ pound boneless chicken, cut into 1/2 inch cubes\n\n\n¼ cup cornstarch, or as needed\n\n\n3 cups peanut oil for frying\n\n\n4 cloves garlic, minced\n\n\n1 tablespoon minced fresh ginger root\n\n\n2  green onions, julienned\n\n\n2  long, green chilies - cut into 1/2-inch pieces\n\n\n2 cups dried chilies, chopped\n\n\n2 tablespoons Szechuan peppercorns\n\n\n2 teaspoons soy sauce\n\n\n2 teaspoons Chinese cooking wine\n\n\n½ teaspoon white sugar\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together 1 teaspoon cooking wine and 1/2 teaspoon salt in a bowl; add the chicken and stir to coat. Allow to marinate 2 to 3 minutes. Place the marinated chicken in a large, sealable plastic bag with the cornstarch and shake to coat."},{"recipe_directions":"Heat the peanut oil in a wok or large skillet over high heat. Fry the chicken in the oil until it begins to crisp around the edges, 7 to 10 minutes. Remove the chicken to a paper towel-lined plate to drain. Reserve 2 tablespoons of the oil, discarding the rest."},{"recipe_directions":"Reheat the reserved oil in the wok over medium-high heat; cook and stir the garlic, ginger, and green onions in the oil until fragrant, about 1 minute. Add the green chilies, crushed dried chilies, and Szechuan peppercorns; continue frying about 20 seconds more. Return the chicken to the wok; stir in the soy sauce, 2 teaspoons cooking wine, sugar, and 1/2 teaspoon salt until thoroughly combined. Remove from heat and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"336\nCalories\n\n\n20g \nFat\n\n\n27g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641581-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bIGuU17nLgwBi-Hk7S8YiyVbUnc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5631493-a9004f6a961d442dbdb73f244af9a112.jpg"
@@ -1568,59 +1825,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/197394/joes-general-tsos-chicken/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Joe's General Tso's Chicken</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups vegetable oil for frying\n\n\n3  eggs\n\n\n½ cup cornstarch\n\n\n1 pound skinless, boneless chicken thighs, cut into bite-sized pieces\n\n\n1 tablespoon vegetable oil\n\n\n5  dried red pepper pods\n\n\n1 ½ tablespoons rice vinegar\n\n\n2 tablespoons rice wine\n\n\n3 tablespoons white sugar\n\n\n3 tablespoons soy sauce\n\n\n2 teaspoons cornstarch\n\n\n3  green onions, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups vegetable oil for frying\n\n\n3  eggs\n\n\n½ cup cornstarch\n\n\n1 pound skinless, boneless chicken thighs, cut into bite-sized pieces\n\n\n1 tablespoon vegetable oil\n\n\n5  dried red pepper pods\n\n\n1 ½ tablespoons rice vinegar\n\n\n2 tablespoons rice wine\n\n\n3 tablespoons white sugar\n\n\n3 tablespoons soy sauce\n\n\n2 teaspoons cornstarch\n\n\n3  green onions, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 375 degrees F (190 degrees C)."},{"recipe_directions":"Beat the eggs in a mixing bowl until smooth. Stir in 1/2 cup of cornstarch until no lumps remain, then mix in the chicken until evenly coated in batter."},{"recipe_directions":"In batches, carefully drop the chicken cubes into the hot oil one by one, cooking until the chicken turns golden brown and begins to float, about 3 minutes. Drain on a paper towel-lined plate."},{"recipe_directions":"Heat the vegetable oil in a wok or large skillet over high heat. Stir in the dried peppers, and cook for about 30 seconds until the color brightens. Add the chicken, and cook for a few minutes until the chicken turns a deep, golden brown. Stir the vinegar, rice wine, sugar, soy sauce, and 2 teaspoons of cornstarch together in a small bowl. Pour into the wok, and boil until the sauce thickens and is no longer cloudy, about 2 minutes. Garnish with green onions to serve."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the batter ingredients. The actual amount of the batter consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"865\nCalories\n\n\n53g \nFat\n\n\n62g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641585-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k91FehchY6XppYunXT_yr1YyodM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/514396-3bfe403198514b14931af2f0831ba378.jpg"
@@ -1633,59 +1886,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8890/general-tsaos-chicken/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>General Tsao's Chicken</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup cornstarch\n\n\n¼ cup water\n\n\n1 ½ teaspoons minced garlic\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n¾ cup white sugar\n\n\n¼ cup soy sauce\n\n\n¼ cup white wine vinegar\n\n\n½ cup hot chicken broth\n\n\n1 teaspoon monosodium glutamate (MSG)\n\n\n3 pounds skinless, boneless chicken breast halves, cut into bite size pieces\n\n\n½ cup soy sauce\n\n\n1 teaspoon ground white pepper\n\n\n1  egg\n\n\n1 cup cornstarch\n\n\n1 cup vegetable oil\n\n\n2 cups chopped green onions\n\n\n16  chile peppers, sun-dried"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup cornstarch\n\n\n¼ cup water\n\n\n1 ½ teaspoons minced garlic\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n¾ cup white sugar\n\n\n¼ cup soy sauce\n\n\n¼ cup white wine vinegar\n\n\n½ cup hot chicken broth\n\n\n1 teaspoon monosodium glutamate (MSG)\n\n\n3 pounds skinless, boneless chicken breast halves, cut into bite size pieces\n\n\n½ cup soy sauce\n\n\n1 teaspoon ground white pepper\n\n\n1  egg\n\n\n1 cup cornstarch\n\n\n1 cup vegetable oil\n\n\n2 cups chopped green onions\n\n\n16  chile peppers, sun-dried'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To Make Sauce: In a large bowl combine 1/2 cup cornstarch and 1/4 cup water. Mix together. Add garlic, ginger, sugar, 1/4 cup soy sauce and white wine vinegar. Then add chicken broth and monosodium glutamate and stir all together until sugar dissolves. Refrigerate until needed."},{"recipe_directions":"To Prepare Chicken: In a separate bowl, combine chicken, 1/2 cup soy sauce and white pepper. Stir in egg. Add 1 cup cornstarch and stir until chicken is evenly coated. Add oil to help separate chicken pieces. Divide chicken into small quantities and deep fry at 350 degrees F (175 degrees C) until crispy. Drain on paper towels."},{"recipe_directions":"To Make Mixture: Place a small amount of oil in wok and heat until wok is hot. Add scallions and dried chile peppers and stir-fry briefly. Remove sauce from refrigerator and stir. Add sauce to wok. Then add fried chicken and cook until sauce thickens (add cornstarch or water as needed until sauce is as thick as you like it)."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"842\nCalories\n\n\n41g \nFat\n\n\n61g \nCarbs\n\n\n57g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641589-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bhgWeGWKBN7alKyjhZ8ngtaceRI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8194162-399b92900f604208875f285d9fc9410b.jpg"
@@ -1698,59 +1947,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277957/air-fryer-general-tsos-chicken/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Air Fryer General Tso's Chicken</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup chicken broth\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon Sriracha"},{"recipe_ingredients":"1 pound skinless, boneless chicken breasts, cut into bite-size pieces\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon soy sauce\n\n\n  cooking spray\n\n\n1 teaspoon chopped scallions, or to taste\n\n\n1 teaspoon toasted sesame seeds, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup chicken broth\n\n\n1 tablespoon sesame oil\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon hoisin sauce\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon Sriracha'}, {'recipe_ingredients': '1 pound skinless, boneless chicken breasts, cut into bite-size pieces\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon soy sauce\n\n\n  cooking spray\n\n\n1 teaspoon chopped scallions, or to taste\n\n\n1 teaspoon toasted sesame seeds, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"For the sauce: Combine broth, sesame oil, soy sauce, hoisin sauce, cornstarch, garlic, and Sriracha in a medium saucepan. Whisk until cornstarch is dissolved. Bring to a boil over medium-high heat. Reduce heat to low."},{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C) according to the manufacturer's instructions."},{"recipe_directions":"Place chicken, cornstarch, and soy sauce into a bowl and stir until chicken is evenly coated. Transfer chicken to the air fryer basket. Spray with cooking spray."},{"recipe_directions":"Cook in the preheated air fryer for 8 minutes. Shake the basket, breaking up any pieces that have stuck together, and spray with cooking spray again. Continue to cook until chicken is no longer pink in the center, about 8 minutes more."},{"recipe_directions":"Transfer chicken to a large bowl. Pour sauce over chicken and toss to coat. Garnish with scallions and sesame seeds."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"201\nCalories\n\n\n7g \nFat\n\n\n9g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641596-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/x54g6yNP7Reobdv0KX_lKoyplr0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1816983-dd9f4e350073466281d8fc9066e0f586.jpg"
@@ -1763,59 +2008,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/77524/stir-fried-chicken-with-pineapple-and-peppers/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Stir-Fried Chicken With Pineapple and Peppers</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup reduced-sodium soy sauce \n\n\n2 tablespoons white wine vinegar\n\n\n2 tablespoons mirin (sweetened Asian wine) \n\n\n1 teaspoon grated ginger root\n\n\n2  crushed garlic cloves\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons oil, preferably sesame oil \n\n\n1 pound boneless, skinless chicken breast, cut in 1-inch pieces \n\n\n6 large green onions, cut in 1-inch pieces \n\n\n2 cups fresh or frozen pepper strips \n\n\n1 (20 ounce) can chunk pineapple in juice \n\n\n¼ cup sliced almonds (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup reduced-sodium soy sauce \n\n\n2 tablespoons white wine vinegar\n\n\n2 tablespoons mirin (sweetened Asian wine) \n\n\n1 teaspoon grated ginger root\n\n\n2  crushed garlic cloves\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons oil, preferably sesame oil \n\n\n1 pound boneless, skinless chicken breast, cut in 1-inch pieces \n\n\n6 large green onions, cut in 1-inch pieces \n\n\n2 cups fresh or frozen pepper strips \n\n\n1 (20 ounce) can chunk pineapple in juice \n\n\n¼ cup sliced almonds (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir soy sauce, vinegar, mirin, ginger, garlic, and cornstarch together until well combined."},{"recipe_directions":"Heat oil in a large skillet and stir-fry chicken until brown and cooked through, about 5 minutes. Remove from the skillet."},{"recipe_directions":"Add green onions, peppers, and pineapple to the skillet; cook until heated through. Pour in soy sauce mixture and stir until thickened. Return chicken to the skillet and cook until heated through. Sprinkle with almonds."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"238\nCalories\n\n\n8g \nFat\n\n\n21g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641604-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IzeoVElW_Q07Bp7a-9Zrw4IJ0D4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1018396-46d59e9fbd7143fea867301fc3614117.jpg"
@@ -1828,59 +2069,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214774/adriels-chinese-curry-chicken/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Adriel's Chinese Curry Chicken</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon yellow curry paste\n\n\n½ cup chicken broth, divided\n\n\n1 teaspoon white sugar\n\n\n1 ½ teaspoons curry powder\n\n\n½ teaspoon salt\n\n\n4 ½ teaspoons light soy sauce\n\n\n1 (5.6 ounce) can coconut milk\n\n\n1 tablespoon canola oil\n\n\n3  skinless, boneless chicken breast halves, sliced\n\n\n2 teaspoons minced garlic\n\n\n1 teaspoon minced fresh ginger\n\n\n1  onion, sliced\n\n\n2  potatoes - peeled, halved, and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon yellow curry paste\n\n\n½ cup chicken broth, divided\n\n\n1 teaspoon white sugar\n\n\n1 ½ teaspoons curry powder\n\n\n½ teaspoon salt\n\n\n4 ½ teaspoons light soy sauce\n\n\n1 (5.6 ounce) can coconut milk\n\n\n1 tablespoon canola oil\n\n\n3  skinless, boneless chicken breast halves, sliced\n\n\n2 teaspoons minced garlic\n\n\n1 teaspoon minced fresh ginger\n\n\n1  onion, sliced\n\n\n2  potatoes - peeled, halved, and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, mash yellow curry paste with about 2 tablespoons of chicken broth to help dissolve paste; whisk in remaining chicken broth, sugar, curry powder, salt, light soy sauce, and coconut milk. Set aside."},{"recipe_directions":"Heat a wok or large skillet over high heat for about 30 seconds; add oil and heat until shimmering, about 30 more seconds. Stir chicken, garlic, and ginger into hot oil; cook and stir until chicken has begun to brown and garlic and ginger are fragrant, about 2 minutes. Stir in onion and potatoes; toss well and pour in sauce mixture. Bring to a boil, reduce heat, and cover the wok. Simmer until chicken is cooked through and potatoes are tender, 20 to 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"241\nCalories\n\n\n7g \nFat\n\n\n24g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641608-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/M78wBxMNh5Q164aYEOVT4etFvRQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(555x0:557x2):format(webp)/9122525-6b6784b5db2e40b6b98b1b328c478c27.jpg"
@@ -1893,59 +2130,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/92761/debs-general-tsos-chicken/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Deb's General Tso's Chicken</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups vegetable oil for frying\n\n\n3 large eggs\n\n\n½ cup cornstarch\n\n\n2 teaspoons cornstarch\n\n\n2 pounds skinless, boneless chicken thighs, cut into bite-sized pieces"},{"recipe_ingredients":"1 ½ cups white sugar\n\n\n¼ cup distilled white vinegar\n\n\n¼ cup rice vinegar\n\n\n¼ cup dry sherry\n\n\n2 ½ tablespoons soy sauce\n\n\n2 teaspoons minced garlic\n\n\n2 tablespoons vegetable oil\n\n\n12  whole dried red chile peppers, or to taste\n\n\n2 tablespoons minced fresh ginger, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups vegetable oil for frying\n\n\n3 large eggs\n\n\n½ cup cornstarch\n\n\n2 teaspoons cornstarch\n\n\n2 pounds skinless, boneless chicken thighs, cut into bite-sized pieces'}, {'recipe_ingredients': '1 ½ cups white sugar\n\n\n¼ cup distilled white vinegar\n\n\n¼ cup rice vinegar\n\n\n¼ cup dry sherry\n\n\n2 ½ tablespoons soy sauce\n\n\n2 teaspoons minced garlic\n\n\n2 tablespoons vegetable oil\n\n\n12  whole dried red chile peppers, or to taste\n\n\n2 tablespoons minced fresh ginger, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook chicken: Heat oil in a deep fryer or large saucepan to 375 degrees F (190 degrees C)."},{"recipe_directions":"Beat eggs in a large bowl until smooth. Mix in 1/2 cup plus 2 teaspoons cornstarch until no lumps remain. Stir in chicken pieces until evenly coated."},{"recipe_directions":"Drop battered chicken pieces into hot oil, one by one. Cook until chicken is golden brown and begins to float, about 3 minutes. Drain on a paper towel-lined plate."},{"recipe_directions":"Make sauce: Combine sugar, vinegars, sherry, soy sauce, and garlic in a small saucepan; bring to a boil. Cook and stir over medium-high heat until sugar is dissolved and sauce has thickened to the consistency of light pancake syrup, about 3 minutes. Remove from heat and keep sauce warm."},{"recipe_directions":"Heat oil in a wok or large skillet over medium-high heat. Cook and stir chiles and ginger in hot oil until ginger begins to brown, about 30 seconds. Use a slotted spoon to remove chiles and ginger to warm sauce; stir until combined."},{"recipe_directions":"Cook and stir-fry chicken in the same wok until very crispy and dark golden brown. Serve with sauce."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the batter ingredients. The actual amount of the batter consumed will vary."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"829\nCalories\n\n\n37g \nFat\n\n\n92g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641612-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dYtWTKrp9jrlEdxuCVum727XmBA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5893102-782abbb75da2451ca07d769b812a68ab.jpg"
@@ -1958,59 +2191,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/198796/avocado-chicken-stir-fry/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Avocado Chicken Stir-Fry</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup chicken broth\n\n\n¼ cup soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 clove garlic, minced\n\n\n1 tablespoon vegetable oil\n\n\n4  skinless, boneless chicken breast halves, cut into bite size pieces\n\n\n2 cups snow peas\n\n\n2 cups cremini mushrooms, stems discarded, caps thinly sliced\n\n\n4 bunches green onions, cut into 1-inch pieces\n\n\n2 large ripe but firm avocados - peeled, pitted, and cut into large chunks"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup chicken broth\n\n\n¼ cup soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 clove garlic, minced\n\n\n1 tablespoon vegetable oil\n\n\n4  skinless, boneless chicken breast halves, cut into bite size pieces\n\n\n2 cups snow peas\n\n\n2 cups cremini mushrooms, stems discarded, caps thinly sliced\n\n\n4 bunches green onions, cut into 1-inch pieces\n\n\n2 large ripe but firm avocados - peeled, pitted, and cut into large chunks'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir broth, soy sauce, cornstarch, and garlic together in a bowl until cornstarch dissolves; set aside."},{"recipe_directions":"Heat oil in a wok over medium-high heat until shimmering. Add chicken and stir-fry until no longer pink in the center and the juices run clear, about 5 minutes; transfer to a plate."},{"recipe_directions":"Add snow peas to the wok and stir-fry until bright green and still crisp, about 3 minutes. Stir in mushrooms and green onions; cook, tossing occasionally, until mushrooms are tender and have released their juices, about 5 minutes. Drain if necessary. Reduce the heat to medium."},{"recipe_directions":"Return chicken to the wok and stir briefly to combine with vegetables. Stir broth mixture to recombine; pour into the wok. Stir in avocados, then simmer until sauce thickens, about 3 minutes. Gently stir ingredients to coat in sauce and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"494\nCalories\n\n\n27g \nFat\n\n\n37g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641615-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Du_S_7cuOIELzL50k5d2Jnr_SzM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1014047-16e6b14610e3408a85c0c3b17c678c9e.jpg"
@@ -2023,59 +2252,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8914/chinese-chicken-salad/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Chinese Chicken Salad</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ½  boneless chicken breast halves, cooked and diced\n\n\n1 head lettuce, torn into small pieces\n\n\n4  green onions, sliced\n\n\n4 stalks celery, sliced thin\n\n\n6 ounces Chinese noodles, heated briefly to crisp\n\n\n½ cup walnuts, chopped\n\n\n2 tablespoons sesame seeds, toasted"},{"recipe_ingredients":"6 tablespoons seasoned rice vinegar\n\n\n4 tablespoons white sugar\n\n\n1 teaspoon salt\n\n\n½ cup peanut oil"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ½  boneless chicken breast halves, cooked and diced\n\n\n1 head lettuce, torn into small pieces\n\n\n4  green onions, sliced\n\n\n4 stalks celery, sliced thin\n\n\n6 ounces Chinese noodles, heated briefly to crisp\n\n\n½ cup walnuts, chopped\n\n\n2 tablespoons sesame seeds, toasted'}, {'recipe_ingredients': '6 tablespoons seasoned rice vinegar\n\n\n4 tablespoons white sugar\n\n\n1 teaspoon salt\n\n\n½ cup peanut oil'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare salad: Combine chicken, lettuce, green onion, celery, noodles, nuts, and sesame seeds in a large salad bowl. Mix all together. Set aside."},{"recipe_directions":"Make dressing: Put vinegar in a small bowl. Dissolve sugar and salt in vinegar before adding oil. Shake, or beat, well."},{"recipe_directions":"Add dressing to salad, toss to coat, and serve."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"517\nCalories\n\n\n32g \nFat\n\n\n39g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641619-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vfTlQfGuDSZYBC2ChPlVUrnfTL4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/691817-61cfaca239174199ab1630ca38a34355.jpg"
@@ -2088,59 +2313,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/167942/hunan-kung-pao/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Hunan Kung Pao</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n20  peeled and deveined large shrimp (21 to 30 per pound)\n\n\n4 teaspoons soy sauce\n\n\n4 teaspoons rice wine\n\n\n2 teaspoons sesame oil (Optional)\n\n\n1 tablespoon cornstarch\n\n\n½ cup vegetable oil, divided\n\n\n4 cloves garlic, minced\n\n\n16  dried red chile peppers, cut in half\n\n\n2 teaspoons Sichuan peppercorns (Optional)\n\n\n1  red bell pepper, sliced\n\n\n1  green bell pepper, sliced\n\n\n¼ cup dark soy sauce\n\n\n2 tablespoons rice wine\n\n\n2 teaspoons white sugar\n\n\n1 cup salted peanuts\n\n\n4  green onions, cut into 3 inch lengths\n\n\n2 dashes sesame oil, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n20  peeled and deveined large shrimp (21 to 30 per pound)\n\n\n4 teaspoons soy sauce\n\n\n4 teaspoons rice wine\n\n\n2 teaspoons sesame oil (Optional)\n\n\n1 tablespoon cornstarch\n\n\n½ cup vegetable oil, divided\n\n\n4 cloves garlic, minced\n\n\n16  dried red chile peppers, cut in half\n\n\n2 teaspoons Sichuan peppercorns (Optional)\n\n\n1  red bell pepper, sliced\n\n\n1  green bell pepper, sliced\n\n\n¼ cup dark soy sauce\n\n\n2 tablespoons rice wine\n\n\n2 teaspoons white sugar\n\n\n1 cup salted peanuts\n\n\n4  green onions, cut into 3 inch lengths\n\n\n2 dashes sesame oil, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine chicken and shrimp in a mixing bowl along with 4 teaspoons soy sauce, 4 teaspoons rice wine, and 2 teaspoons sesame oil. Sprinkle with cornstarch, and mix until evenly combined. Set aside to marinate for 25 minutes."},{"recipe_directions":"Heat 1/2 of the vegetable oil in a wok over high heat. Stir in chicken mixture and cook until chicken has turned white on the outside and is still a bit pink in the center, about 5 minutes. Remove chicken mixture and wipe the wok clean."},{"recipe_directions":"Heat remaining vegetable oil over high heat. Stir in garlic; cook for a few seconds until garlic begins to turn brown. Stir in dried chiles and Sichuan peppercorns; cook and stir for a few seconds until peppers begin to darken."},{"recipe_directions":"Add red and green bell peppers, dark soy sauce, 2 tablespoons rice wine, and sugar. Bring to a boil and stir in chicken mixture. Cook until peppers are nearly tender and chicken is no longer pink in the center, about 5 minutes more. Stir in peanuts and green onion until green onion becomes limp. Stir in a few drops of sesame oil to serve."},{"recipe_directions":"Substitute cashews for the peanuts, if you prefer."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"790\nCalories\n\n\n52g \nFat\n\n\n21g \nCarbs\n\n\n59g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641623-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P0visau4dHceX0MzVjbw50nrq0Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/658707-a7ed7dc18380455d99669e13bcf91774.jpg"
@@ -2153,59 +2374,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/152220/chicken-with-green-peppers-in-black-bean-sauce/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Chicken with Green Peppers in Black Bean Sauce</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons toasted sesame oil\n\n\n4 cloves garlic cloves, peeled and sliced\n\n\n6 tablespoons black bean sauce\n\n\n1 teaspoon salt\n\n\n¾ pound skinless, boneless chicken breast half - cut into cubes\n\n\n1 cube chicken bouillon dissolved in\n\n\n½ cup boiling water\n\n\n1 large onion, peeled and sliced\n\n\n1 bunch green onions, chopped\n\n\n2  green bell pepper, diced\n\n\n1 ½ tablespoons dark soy sauce\n\n\n1 teaspoon black pepper\n\n\n4 teaspoons cornstarch dissolved in \n\n\n3 tablespoons water\n\n\n4 tablespoons chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons toasted sesame oil\n\n\n4 cloves garlic cloves, peeled and sliced\n\n\n6 tablespoons black bean sauce\n\n\n1 teaspoon salt\n\n\n¾ pound skinless, boneless chicken breast half - cut into cubes\n\n\n1 cube chicken bouillon dissolved in\n\n\n½ cup boiling water\n\n\n1 large onion, peeled and sliced\n\n\n1 bunch green onions, chopped\n\n\n2  green bell pepper, diced\n\n\n1 ½ tablespoons dark soy sauce\n\n\n1 teaspoon black pepper\n\n\n4 teaspoons cornstarch dissolved in \n\n\n3 tablespoons water\n\n\n4 tablespoons chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a wok over a medium heat until hot, add the toasted sesame oil and heat for about 30 seconds. Stir in garlic and black bean sauce, and season with salt. Add chicken to the wok; cook, stirring frequently, until chicken is cooked through. Pour in dissolved chicken bouillon, cover, and cook for 6 minutes."},{"recipe_directions":"Stir in onion, green onions, and bell pepper, and season with soy sauce and black pepper. Cover, and cook for 8 minutes. Stir in cornstarch mixture, and stir until sauce thickens. Stir in cilantro, and serve."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n13g \nFat\n\n\n17g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641627-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hU6hNgWPa5k2S1BXnREwzl7EYHM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/797672-c021c44057354b5589fb1e78b40e3436.jpg"
@@ -2218,59 +2435,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54492/stir-fried-chicken-with-tofu-and-mixed-vegetables/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Stir-Fried Chicken with Tofu and Mixed Vegetables</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons light soy sauce\n\n\n1 teaspoon white sugar\n\n\n1 tablespoon cornstarch\n\n\n3 tablespoons Chinese rice wine\n\n\n1 medium green onion, diced\n\n\n2  skinless, boneless chicken breast halves - cut into bite-size pieces\n\n\n3 cloves garlic, chopped\n\n\n1  yellow onion, thinly sliced\n\n\n2  green bell peppers, thinly sliced\n\n\n1 (12 ounce) package firm tofu, drained and cubed\n\n\n½ cup water\n\n\n2 tablespoons oyster sauce\n\n\n1 ½ tablespoons chili paste with garlic"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons light soy sauce\n\n\n1 teaspoon white sugar\n\n\n1 tablespoon cornstarch\n\n\n3 tablespoons Chinese rice wine\n\n\n1 medium green onion, diced\n\n\n2  skinless, boneless chicken breast halves - cut into bite-size pieces\n\n\n3 cloves garlic, chopped\n\n\n1  yellow onion, thinly sliced\n\n\n2  green bell peppers, thinly sliced\n\n\n1 (12 ounce) package firm tofu, drained and cubed\n\n\n½ cup water\n\n\n2 tablespoons oyster sauce\n\n\n1 ½ tablespoons chili paste with garlic'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, mix the soy sauce, sugar, cornstarch, and rice wine. Place the green onion and chicken in the mixture. Allow to marinate at least 15 minutes."},{"recipe_directions":"In a wok over medium-high heat, cook and stir the chicken with the marinade mixture about 5 minutes until almost done. Toss in the garlic, onion, and peppers. Continue to cook and stir 5 minutes, or until vegetables are crisp but tender and chicken is no longer pink and juices run clear."},{"recipe_directions":"Mix the tofu, water, oyster sauce, and chili paste into the wok. Cook and stir until heated through."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"172\nCalories\n\n\n6g \nFat\n\n\n12g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641632-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gQcHF1zTfljdj34lp7X03y_s4is=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/962089-hunan-style-chicken-Baking-Nana-4x3-1-462daf00b8004b77998c533f496897db.jpg"
@@ -2284,59 +2497,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/176235/hunan-style-chicken/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Hunan-Style Chicken</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon honey\n\n\n1 teaspoon black peppercorns\n\n\n½ teaspoon salt\n\n\n2 tablespoons dark soy sauce\n\n\n2 tablespoons dry sherry\n\n\n6  boneless skinless chicken thighs, cut into chunks\n\n\n3 tablespoons vegetable oil\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon crumbled dried red chile pepper\n\n\n4  green onions, chopped\n\n\n1 teaspoon hot bean sauce\n\n\n2 tablespoons rice vinegar\n\n\n1 teaspoon sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon honey\n\n\n1 teaspoon black peppercorns\n\n\n½ teaspoon salt\n\n\n2 tablespoons dark soy sauce\n\n\n2 tablespoons dry sherry\n\n\n6  boneless skinless chicken thighs, cut into chunks\n\n\n3 tablespoons vegetable oil\n\n\n1 tablespoon minced fresh ginger root\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon crumbled dried red chile pepper\n\n\n4  green onions, chopped\n\n\n1 teaspoon hot bean sauce\n\n\n2 tablespoons rice vinegar\n\n\n1 teaspoon sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together the honey, peppercorns, salt, soy sauce, and sherry in a large bowl; add the chicken and toss to coat."},{"recipe_directions":"Heat the oil in a large skillet over medium-high heat."},{"recipe_directions":"Add the ginger, garlic, red chile pepper, and green onions; cook and stir until fragrant, no more than 30 seconds. Stir in the chicken and soy sauce mixture; fry another 3 minutes. Reduce heat to low, cover. Simmer until the chicken is no longer pink in the center, 5 to 10 minutes."},{"recipe_directions":"Whisk together the bean sauce, vinegar, and sesame oil in a small bowl; pour over the chicken and stir. Turn heat to high and allow to cook 1 minute. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"391\nCalories\n\n\n23g \nFat\n\n\n10g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641636-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G6xPyCJACoNZPeQMTc8zdQu0SG0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1089424-spicy-chinese-chicken-wings-Doubletigers-4x3-1-d93ba5aa0c3b4ea68e761055e5b98847.jpg"
@@ -2350,59 +2559,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/104600/spicy-chinese-chicken-wings/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Spicy Chinese Chicken Wings</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound chicken wings\n\n\n2 tablespoons white sugar\n\n\n½ cup soy sauce\n\n\n¼ cup rice wine\n\n\n3 tablespoons chili garlic sauce\n\n\n1 tablespoon sesame oil\n\n\n2 cloves garlic, minced\n\n\n¼ cup water"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound chicken wings\n\n\n2 tablespoons white sugar\n\n\n½ cup soy sauce\n\n\n¼ cup rice wine\n\n\n3 tablespoons chili garlic sauce\n\n\n1 tablespoon sesame oil\n\n\n2 cloves garlic, minced\n\n\n¼ cup water'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse and pat dry the chicken wings. Whisk together the sugar, soy sauce, rice wine, chili garlic sauce, sesame oil, and garlic in a large bowl, then add the chicken wings and toss to evenly coat."},{"recipe_directions":"Heat a lightly oiled skillet over medium heat. Stir in the chicken wings, sauce, and water. Cover and cook until the chicken wings are no longer pink at the bone, turning the chicken wings occasionally, about 15 minutes. Remove lid and continue cooking until the sauce has thickened, 5 to 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"702\nCalories\n\n\n43g \nFat\n\n\n22g \nCarbs\n\n\n46g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641641-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2O9DXhbHIUA62hm7q-HtiP3eu1M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/431473-04cbff5e053a4ae7be58539d73492f95.jpg"
@@ -2415,59 +2620,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/150942/moo-goo-gai-pan-ii/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Moo Goo Gai Pan II</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n¼ pound sliced fresh mushrooms\n\n\n¼ pound snow peas\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n¼ pound sliced bok choy\n\n\n  salt and black pepper to taste\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon minced fresh ginger root\n\n\n¾ cup skinless, boneless chicken breast meat - thinly sliced\n\n\n1 teaspoon white wine\n\n\n¼ teaspoon white sugar\n\n\n¼ cup chicken broth\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons water"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n¼ pound sliced fresh mushrooms\n\n\n¼ pound snow peas\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n¼ pound sliced bok choy\n\n\n  salt and black pepper to taste\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon minced fresh ginger root\n\n\n¾ cup skinless, boneless chicken breast meat - thinly sliced\n\n\n1 teaspoon white wine\n\n\n¼ teaspoon white sugar\n\n\n¼ cup chicken broth\n\n\n1 tablespoon cornstarch\n\n\n2 tablespoons water'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 tablespoon of vegetable oil in a wok or large skillet over high heat. Stir in the mushrooms, snow peas, water chestnuts, and bok choy; season to taste with salt and pepper. Cook and stir until the vegetables are just tender, about 5 minutes. Remove the vegetables from the wok and wipe the wok clean."},{"recipe_directions":"Heat the remaining 1 tablespoon of vegetable oil in the wok. Stir in the garlic and ginger; cook a few seconds until the garlic begins to turn golden brown. Stir in the chicken and cook until the chicken is no longer pink, about 5 minutes. Add the wine, sugar, and chicken broth; bring to a boil. Dissolve the cornstarch in the water and stir into the simmering sauce. Once the sauce returns to a simmer, stir until thick and clear, about 30 seconds. Return the vegetables to the wok and toss until hot and coated with the sauce."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n8g \nFat\n\n\n13g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641650-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4Gr98ZQ-RR3mwpBPXabA_0Fit7c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1050054-general-tsos-chicken-scottchanell-4x3-1-0a25431c8eb04e598b1844f91a4a2224.jpg"
@@ -2481,59 +2682,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/59101/general-tsos-chicken/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Classic General Tso's Chicken</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups peanut oil for frying\n\n\n2  eggs\n\n\n1 teaspoon sesame oil\n\n\n½ cup cornstarch\n\n\n1 pound skinless, boneless chicken thighs, cut into bite-sized pieces\n\n\n1 ½ tablespoons rice vinegar\n\n\n2 tablespoons rice wine\n\n\n3 tablespoons white sugar\n\n\n3 tablespoons soy sauce\n\n\n1 teaspoon sesame oil\n\n\n1 tablespoon banana ketchup\n\n\n2 tablespoons peanut oil\n\n\n6  dried whole red chilies\n\n\n½ cup diced onion\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon orange zest\n\n\n2 tablespoons minced green onions\n\n\n1 tablespoon toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups peanut oil for frying\n\n\n2  eggs\n\n\n1 teaspoon sesame oil\n\n\n½ cup cornstarch\n\n\n1 pound skinless, boneless chicken thighs, cut into bite-sized pieces\n\n\n1 ½ tablespoons rice vinegar\n\n\n2 tablespoons rice wine\n\n\n3 tablespoons white sugar\n\n\n3 tablespoons soy sauce\n\n\n1 teaspoon sesame oil\n\n\n1 tablespoon banana ketchup\n\n\n2 tablespoons peanut oil\n\n\n6  dried whole red chilies\n\n\n½ cup diced onion\n\n\n1 tablespoon minced garlic\n\n\n1 tablespoon orange zest\n\n\n2 tablespoons minced green onions\n\n\n1 tablespoon toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 4 cups of peanut oil in a deep-fryer or large saucepan to 375 degrees F (190 degrees C)."},{"recipe_directions":"Beat the eggs in a mixing bowl; whisk in 1 teaspoon of sesame oil and the cornstarch. Mix in the chicken until all the pieces are coated with batter. Drop into the hot oil a piece at a time; cook until the chicken is golden brown on the outside and no longer pink on the inside, about 4 minutes. Drain on a paper towel-lined plate."},{"recipe_directions":"Stir together the vinegar, wine, sugar, soy sauce, 1 teaspoon sesame oil, and the banana ketchup in a small bowl until smooth; set aside. Heat 2 tablespoons peanut oil in a wok or large skillet over high heat. Stir in the dried chile peppers and cook for a few seconds until the peppers brighten. Stir in the onion, garlic, and orange zest. Cook and stir until the onion is beginning to brown. Stir in the sauce; bring to a boil before adding the fried chicken. Reduce the heat to medium and stir until the chicken pieces are well coated with the sauce, a few minutes longer. Serve sprinkled with green onions and toasted sesame seeds."},{"recipe_directions":"Editor's Note"},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the batter ingredients. The actual amount of the batter consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"2475\nCalories\n\n\n244g \nFat\n\n\n53g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641656-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-CmNvYMn1YdH8K0U6Z5sxtE25ZU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9392351-chicken-and-chinese-vegetable-stir-fry-maskipaps-4x3-1-a5a7d3d4f08e4eb1953e6d3c1f35a433.jpg"
@@ -2547,59 +2744,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/103218/chicken-and-chinese-vegetable-stir-fry/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Chicken and Chinese Vegetable Stir-Fry</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"14 ounces skinless, boneless chicken breast meat - cut into bite-size pieces\n\n\n½ cup oyster sauce\n\n\n2 tablespoons soy sauce\n\n\n3 tablespoons vegetable oil\n\n\n2 cloves garlic, minced\n\n\n1 large onion, chopped\n\n\n½ cup water\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon white sugar\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n1 cup snow peas\n\n\n1 small head broccoli, cut into florets\n\n\n3 tablespoons cornstarch\n\n\n¼ cup water"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '14 ounces skinless, boneless chicken breast meat - cut into bite-size pieces\n\n\n½ cup oyster sauce\n\n\n2 tablespoons soy sauce\n\n\n3 tablespoons vegetable oil\n\n\n2 cloves garlic, minced\n\n\n1 large onion, chopped\n\n\n½ cup water\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon white sugar\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n1 cup snow peas\n\n\n1 small head broccoli, cut into florets\n\n\n3 tablespoons cornstarch\n\n\n¼ cup water'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the chicken, oyster sauce, and soy sauce in a mixing bowl until the chicken is evenly coated with the sauce; set aside."},{"recipe_directions":"Heat the vegetable oil in a wok or large skillet over high heat. Stir in the garlic and onion; cook and stir until the onion is limp, about 1 minute. Add the chicken and marinade. Cook and stir until the chicken has browned and is no longer pink, about 10 minutes."},{"recipe_directions":"Pour in 1/2 cup of water; season with pepper and sugar. Add the water chestnuts, snow peas, and broccoli. Cover; boil until the vegetables are just tender, about 5 minutes. Dissolve the cornstarch in 1/4 cup of water. Stir into the boiling mixture; cook until thick and no longer cloudy."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"217\nCalories\n\n\n9g \nFat\n\n\n17g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641664-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p-eWjxZZEe9tvRSSzrXaFLWoqto=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/290927-f47d5444ead141cba09b0ba191fed529.jpg"
@@ -2612,59 +2805,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202469/chicken-and-snow-peas/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Chicken and Snow Peas</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup chicken broth\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon ground ginger\n\n\n2 tablespoons vegetable oil\n\n\n4 large skinless, boneless chicken breast halves, cubed\n\n\n2 cloves garlic, minced\n\n\n1 ½ cups sliced fresh mushrooms\n\n\n2 (8 ounce) cans sliced water chestnuts, drained\n\n\n3 cups snow peas\n\n\n1 tablespoon sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chicken broth\n\n\n3 tablespoons soy sauce\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon ground ginger\n\n\n2 tablespoons vegetable oil\n\n\n4 large skinless, boneless chicken breast halves, cubed\n\n\n2 cloves garlic, minced\n\n\n1 ½ cups sliced fresh mushrooms\n\n\n2 (8 ounce) cans sliced water chestnuts, drained\n\n\n3 cups snow peas\n\n\n1 tablespoon sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk the chicken broth, soy sauce, cornstarch, and ginger together in a small bowl; reserve."},{"recipe_directions":"Heat oil in a large skillet or wok. Cook and stir chicken and garlic in the oil until chicken is cooked through, 8 to 10 minutes. Stir in mushrooms, water chestnuts, and reserved chicken broth mixture. Cook until sauce begins to thicken, 3 to 5 minutes."},{"recipe_directions":"Stir snow peas into the pan and cook until tender, 3 to 5 minutes. Transfer to a platter and sprinkle with sesame seeds before serving."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"315\nCalories\n\n\n10g \nFat\n\n\n17g \nCarbs\n\n\n38g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641673-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dSLRfwjcpNLFDI-RFRcWQoH467E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9439281-06b8b2086c924f099b74f2e5c3accd29.jpg"
@@ -2677,59 +2866,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244606/cantonese-chicken-chow-mein/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Cantonese Chicken Chow Mein</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons water\n\n\n1 teaspoon rice wine vinegar\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon cornstarch\n\n\n1 teaspoon sesame oil\n\n\n¼ teaspoon ground black pepper\n\n\n1  skinless, boneless chicken breast half, thinly sliced"},{"recipe_ingredients":"½ cup chicken broth\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons oyster sauce\n\n\n1 teaspoon rice wine vinegar\n\n\n1 teaspoon white sugar\n\n\n¼ cup canola oil, divided\n\n\n1 pound chow mein noodles\n\n\n1 stalk celery, thinly sliced on the diagonal\n\n\n1  carrot, cut into matchstick-size pieces\n\n\n¼ cup bean sprouts\n\n\n¼ cup thinly sliced onion\n\n\n1  green onion, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons water\n\n\n1 teaspoon rice wine vinegar\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon cornstarch\n\n\n1 teaspoon sesame oil\n\n\n¼ teaspoon ground black pepper\n\n\n1  skinless, boneless chicken breast half, thinly sliced'}, {'recipe_ingredients': '½ cup chicken broth\n\n\n1 tablespoon soy sauce\n\n\n2 teaspoons oyster sauce\n\n\n1 teaspoon rice wine vinegar\n\n\n1 teaspoon white sugar\n\n\n¼ cup canola oil, divided\n\n\n1 pound chow mein noodles\n\n\n1 stalk celery, thinly sliced on the diagonal\n\n\n1  carrot, cut into matchstick-size pieces\n\n\n¼ cup bean sprouts\n\n\n¼ cup thinly sliced onion\n\n\n1  green onion, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk water, 1 teaspoon rice wine vinegar, 1 teaspoon soy sauce, cornstarch, sesame oil, and black pepper together in a bowl until marinade is smooth. Add chicken and marinate, about 15 minutes."},{"recipe_directions":"Stir chicken broth, 1 tablespoon soy sauce, oyster sauce, 1 teaspoon rice wine vinegar, and sugar together in a bowl until seasoning mixture is well combined."},{"recipe_directions":"Heat 3 tablespoons canola oil in a large skillet over medium heat; cook and stir noodles until golden brown and crisp, about 1 minute. Transfer noodles to a platter."},{"recipe_directions":"Pour the remaining 1 tablespoon into skillet with the oil; cook and stir chicken over high heat until no longer pink in the center, about 5 minutes. Add seasoning mixture, celery, carrot, bean sprouts, onion, and green onion; cook and stir until sauce thickens, about 30 seconds. Pour chicken mixture over noodles."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"517\nCalories\n\n\n23g \nFat\n\n\n60g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641679-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mSTmla2D3Dv3C2ipXp7hz4PI47g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/663871-88235c5fe2834b50a2cdd6e87806c8b6.jpg"
@@ -2742,59 +2927,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49014/ten-minute-szechuan-chicken/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Ten Minute Szechuan Chicken</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  boneless skinless chicken breasts, cut into cubes\n\n\n3 tablespoons cornstarch\n\n\n1 tablespoon vegetable oil\n\n\n4 cloves garlic, minced\n\n\n5 tablespoons low-sodium soy sauce\n\n\n1 ½ tablespoons white wine vinegar\n\n\n¼ cup water\n\n\n1 teaspoon white sugar\n\n\n3  green onions, sliced diagonally into 1/2 inch pieces\n\n\n⅛ teaspoon cayenne pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  boneless skinless chicken breasts, cut into cubes\n\n\n3 tablespoons cornstarch\n\n\n1 tablespoon vegetable oil\n\n\n4 cloves garlic, minced\n\n\n5 tablespoons low-sodium soy sauce\n\n\n1 ½ tablespoons white wine vinegar\n\n\n¼ cup water\n\n\n1 teaspoon white sugar\n\n\n3  green onions, sliced diagonally into 1/2 inch pieces\n\n\n⅛ teaspoon cayenne pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the chicken and cornstarch into a bag or bowl, and toss to coat. Heat oil in a wok or large skillet over medium-high heat. Fry the chicken pieces and garlic, stirring constantly until lightly browned. Stir in the soy sauce, vinegar, sugar and water. Cover, and cook until the chicken pieces are no longer pink inside, 3 to 5 minutes."},{"recipe_directions":"Stir in the green onion, and cayenne pepper, cook uncovered for about 2 more minutes. Serve over white rice."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"206\nCalories\n\n\n5g \nFat\n\n\n10g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641684-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LI0Q4755L_ud4qTo961cOnK0yy4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5071900-easy-fried-chinese-chicken-balls-AllrecipesPhoto-4x3-1-62f559266e964b8c8f1887c0acf213c9.jpg"
@@ -2808,59 +2989,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262501/easy-fried-chinese-chicken-balls/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Easy Fried Chinese Chicken Balls</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 chicken breasts"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n1 pinch salt\n\n\n1 teaspoon sesame oil\n\n\n½ cup water, or more if needed\n\n\n  vegetable oil for frying"},{"recipe_ingredients":"5 tablespoons cornstarch\n\n\n1 pinch ground white pepper\n\n\n4  boneless skinless chicken breasts, cubed"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n1 pinch salt\n\n\n1 teaspoon sesame oil\n\n\n½ cup water, or more if needed\n\n\n  vegetable oil for frying'}, {'recipe_ingredients': '5 tablespoons cornstarch\n\n\n1 pinch ground white pepper\n\n\n4  boneless skinless chicken breasts, cubed'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make batter: Combine flour, baking powder, and salt in a large bowl. Drizzle in sesame oil. Gradually add water, whisking constantly until smooth; batter should be the consistency of cream. Let sit for at least 30 minutes."},{"recipe_directions":"Fill a deep pan or wok with oil and slowly heat to 375 degrees F (190 degrees C)."},{"recipe_directions":"Prepare chicken: Mix together cornstarch and white pepper in a large shallow dish. Dust chicken in cornstarch mixture, then dip into batter, evenly coating each piece."},{"recipe_directions":"Working in batches, fry coated chicken in hot oil until golden and no longer pink in the center, 4 to 5 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C). Use a slotted spoon to remove fried chicken to a clean kitchen towel to drain."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"338\nCalories\n\n\n10g \nFat\n\n\n34g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641688-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cPSrgpYR5E6BUWGPxVVt5d7rS7k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4005100-3ed1887ff4394c2490adadf4751b5a82.jpg"
@@ -2873,59 +3050,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14252/asian-chicken-salad/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Asian Chicken Salad</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup vegetable oil\n\n\n3 tablespoons rice vinegar\n\n\n2 tablespoons brown sugar\n\n\n1 tablespoon sesame oil (Optional)\n\n\n2 teaspoons soy sauce"},{"recipe_ingredients":"1 head iceberg lettuce - rinsed, dried, and chopped\n\n\n4  boneless chicken breast halves, cooked and shredded\n\n\n3  green onions, chopped\n\n\n1 tablespoon sesame seeds, toasted\n\n\n1 ½ tablespoons olive oil, or as needed\n\n\n1 (8 ounce) package dried rice noodles"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup vegetable oil\n\n\n3 tablespoons rice vinegar\n\n\n2 tablespoons brown sugar\n\n\n1 tablespoon sesame oil (Optional)\n\n\n2 teaspoons soy sauce'}, {'recipe_ingredients': '1 head iceberg lettuce - rinsed, dried, and chopped\n\n\n4  boneless chicken breast halves, cooked and shredded\n\n\n3  green onions, chopped\n\n\n1 tablespoon sesame seeds, toasted\n\n\n1 ½ tablespoons olive oil, or as needed\n\n\n1 (8 ounce) package dried rice noodles'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the dressing: Shake oil, vinegar, brown sugar, sesame oil, and soy sauce together in a small lidded container. Set aside until salad is ready."},{"recipe_directions":"Make the salad: Combine lettuce, chicken, green onions, and sesame seeds in a large bowl. Cover and chill for 10 minutes."},{"recipe_directions":"While the salad is chilling, heat oil in a skillet over medium-low heat. Break rice noodles into pieces and fry in the hot skillet in small batches until they begin to puff up, 15 to 25 seconds. Remove to a paper towel-lined plate to drain."},{"recipe_directions":"Remove salad from the refrigerator. Portion into salad bowls, top with fried rice noodles, and drizzle dressing over top."},{"recipe_directions":"Look for cellophane-type rice noodles in the specialty section of most grocery stores. They are often sold in clear, rectangular packages."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"414\nCalories\n\n\n18g \nFat\n\n\n39g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641693-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/opP3ZLTzB2YRm0gEJt80-v-agvM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/960818-moo-goo-gai-pan-Ernestina-Sanchez-4x3-1-d23cb4ee9c514282879fb6437ef7ccad.jpg"
@@ -2939,59 +3112,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/165846/moo-goo-gai-pan/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Moo Goo Gai Pan</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil, divided\n\n\n2 cups chopped broccoli florets\n\n\n1 cup sliced fresh mushrooms\n\n\n1 (15 ounce) can whole straw mushrooms, drained\n\n\n1 (8 ounce) can sliced bamboo shoots, drained\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n2 cloves garlic, minced\n\n\n1 pound skinless, boneless chicken breast, cut into strips\n\n\n¼ cup chicken broth\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon rice wine"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil, divided\n\n\n2 cups chopped broccoli florets\n\n\n1 cup sliced fresh mushrooms\n\n\n1 (15 ounce) can whole straw mushrooms, drained\n\n\n1 (8 ounce) can sliced bamboo shoots, drained\n\n\n1 (8 ounce) can sliced water chestnuts, drained\n\n\n2 cloves garlic, minced\n\n\n1 pound skinless, boneless chicken breast, cut into strips\n\n\n¼ cup chicken broth\n\n\n1 tablespoon cornstarch\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon oyster sauce\n\n\n1 tablespoon rice wine'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 tablespoon oil in a wok over high heat until it begins to smoke. Stir in broccoli and fresh mushrooms, then add straw mushrooms, bamboo shoots, and water chestnuts. Stir-fry until broccoli is tender and all vegetables are hot, about 5 minutes. Transfer to a bowl and wipe out the wok."},{"recipe_directions":"Heat remaining 1 tablespoon oil in the wok over high heat until it begins to smoke. Add garlic and stir-fry until it turns golden, a few seconds. Add chicken and stir-fry until browned on the edges and no longer pink in the center, about 5 minutes."},{"recipe_directions":"Stir broth, cornstarch, sugar, soy sauce, oyster sauce, and rice wine together in a small bowl; pour over chicken in the wok and bring to a boil, stirring constantly. Boil until sauce thickens and is no longer cloudy, about 30 seconds. Return vegetables to the wok; toss with sauce and cook until heated through, about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"307\nCalories\n\n\n10g \nFat\n\n\n23g \nCarbs\n\n\n34g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641697-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ywl-jS3v2OiCn9n3HJG5oVHQfoE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(625x573:627x575):format(webp)/6644307-bang-bang-chicken-Diana71-1x1-1-2299f11618e24300b3a6eeb2b1dbc24d.jpg"
@@ -3005,59 +3174,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273785/bang-bang-chicken/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Bang Bang Chicken</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup milk\n\n\n1 large egg\n\n\n1 pound boneless, skinless chicken breasts, cut into 1-inch cubes \n\n\n¼ cup potato starch\n\n\n¼ cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon shichimi togarashi (Japanese red pepper condiment)\n\n\n2 cups oil for frying, or as needed\n\n\n¼ cup mayonnaise\n\n\n2 tablespoons honey\n\n\n2 tablespoons sweet chili sauce\n\n\n1 teaspoon gochujang (Korean hot pepper paste)"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup milk\n\n\n1 large egg\n\n\n1 pound boneless, skinless chicken breasts, cut into 1-inch cubes \n\n\n¼ cup potato starch\n\n\n¼ cup all-purpose flour\n\n\n½ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon shichimi togarashi (Japanese red pepper condiment)\n\n\n2 cups oil for frying, or as needed\n\n\n¼ cup mayonnaise\n\n\n2 tablespoons honey\n\n\n2 tablespoons sweet chili sauce\n\n\n1 teaspoon gochujang (Korean hot pepper paste)'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together milk and egg in a large bowl until well combined. Add chicken; stir to coat and allow to marinate for 15 minutes. Drain and discard egg mixture."},{"recipe_directions":"Combine potato starch, flour, salt, pepper, and shichimi in a medium bowl. Pour into a large plastic resealable bag. Add chicken; seal the bag and shake until chicken is well coated."},{"recipe_directions":"Heat 2 inches oil in a deep saucepan over medium heat to 325 degrees F (165 degrees C)."},{"recipe_directions":"Working in batches of about 5 to 8 pieces at a time, cook chicken in hot oil for about 90 seconds. Remove to a paper towel-lined plate; keep each batch separate."},{"recipe_directions":"Increase oil temperature to 350 degrees F (175 degrees C). The oil should be continuously boiling at this point. Carefully re-add the first batch of chicken and fry for another 90 seconds. Remove to another paper towel-lined plate. Repeat with remaining batches of chicken."},{"recipe_directions":"Mix together mayonnaise, honey, sweet chili sauce, and gochujang in a large serving bowl until combined. Toss fried chicken with sauce to coat."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"404\nCalories\n\n\n21g \nFat\n\n\n27g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641702-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lbZuRCI50eMjGUxWI19-PPmPTvg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/522244-180c5e6873104b759a27735b6ab351e2.jpg"
@@ -3070,59 +3235,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17161/chinese-chicken-fried-rice-i/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Chinese Chicken Fried Rice</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n7"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ tablespoon sesame oil\n\n\n1  onion, diced\n\n\n1 ½ pounds cooked, cubed chicken meat\n\n\n2 tablespoons soy sauce\n\n\n2 large carrots, diced\n\n\n2 stalks celery, diced\n\n\n1 large red bell pepper, diced\n\n\n¾ cup fresh pea pods, halved\n\n\n½ large green bell pepper, diced\n\n\n6 cups cooked white rice\n\n\n2 large eggs, scrambled\n\n\n⅓ cup soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ tablespoon sesame oil\n\n\n1  onion, diced\n\n\n1 ½ pounds cooked, cubed chicken meat\n\n\n2 tablespoons soy sauce\n\n\n2 large carrots, diced\n\n\n2 stalks celery, diced\n\n\n1 large red bell pepper, diced\n\n\n¾ cup fresh pea pods, halved\n\n\n½ large green bell pepper, diced\n\n\n6 cups cooked white rice\n\n\n2 large eggs, scrambled\n\n\n⅓ cup soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat sesame oil in a large skillet over medium heat. Add onion and sauté until soft. Add cooked chicken and 2 tablespoons soy sauce; stir-fry for 5 to 6 minutes."},{"recipe_directions":"Stir in carrots, celery, red bell pepper, pea pods, and green bell pepper; stir-fry for 5 minutes. Mix in cooked rice until thoroughly combined."},{"recipe_directions":"Stir in scrambled eggs and 1/3 cup soy sauce; cook until heated through and serve hot."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Fried Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"425\nCalories\n\n\n10g \nFat\n\n\n48g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641706-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/umEwtS_1MZEe2u_ksDtJ37haRag=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/16954-chineese-chicken-fried-rice-ii-ddmfs-3X4-0240-3db2550810b1464a965a89a55cc95c7a.jpg"
@@ -3136,59 +3297,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16954/chinese-chicken-fried-rice-ii/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Chinese Chicken Fried Rice</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  egg\n\n\n1 tablespoon water\n\n\n1 tablespoon butter\n\n\n1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n2 cups cooked white rice, cold\n\n\n1 cup cooked, chopped chicken meat\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  egg\n\n\n1 tablespoon water\n\n\n1 tablespoon butter\n\n\n1 tablespoon vegetable oil\n\n\n1  onion, chopped\n\n\n2 cups cooked white rice, cold\n\n\n1 cup cooked, chopped chicken meat\n\n\n2 tablespoons soy sauce\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Beat egg and water together in small bowl. Melt butter in a large skillet or wok over medium-low heat; add egg and cook without stirring, 1 to 2 minutes. Remove egg from skillet and cut into shreds; set aside."},{"recipe_directions":"Heat oil in the same skillet. Add onion; cook and stir until soft, about 3 minutes. Stir in rice, chicken, soy sauce, and pepper. Cook and stir for about 5 minutes; stir in shredded egg. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Fried Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"255\nCalories\n\n\n10g \nFat\n\n\n26g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699641710-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s5BGZA0d-qMY0QGO2mTu6WJi6kI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1499x0:1501x2):format(webp)/165436262820220603_125536VelvetingChicken4x3-df67512025b34d86b1ca027c1aa245c9.jpg"
@@ -3202,59 +3359,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261452/velveting-chicken-breast-chinese-restaurant-style/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Velveting Chicken Breast, Chinese Restaurant Style</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg white\n\n\n1 tablespoon Chinese rice vinegar\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon kosher salt\n\n\n1 pound skinless, boneless chicken breast, thinly sliced\n\n\n8 cups water\n\n\n1 tablespoon peanut oil"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg white\n\n\n1 tablespoon Chinese rice vinegar\n\n\n1 tablespoon cornstarch\n\n\n1 teaspoon kosher salt\n\n\n1 pound skinless, boneless chicken breast, thinly sliced\n\n\n8 cups water\n\n\n1 tablespoon peanut oil'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together egg white, vinegar, cornstarch, and salt in a large bowl until smooth. Add sliced chicken; mix to coat thoroughly. Cover with plastic wrap and marinate in the refrigerator for 30 minutes."},{"recipe_directions":"Bring water and oil to a boil in a pot over high heat. Reduce heat to medium."},{"recipe_directions":"Remove chicken from the marinade and shake off excess; discard remaining marinade. Add chicken to boiling water and cook until just white on the outside but not completely cooked through, about 1 minute."},{"recipe_directions":"Drain chicken and finish cooking in a hot oiled wok or skillet until no longer pink in the center and the juices run clear, or store parboiled chicken in the refrigerator in a sealed container until ready to use, up to a few hours."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of the velveting marinade ingredients. The actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"156\nCalories\n\n\n6g \nFat\n\n\n2g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699641714-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7Hlma2MUuR21sIdki00gmHJ9jYA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/273598_Moo-Shu-Chicken_Soup-Loving-Nicole_SERP_6634984_original-1x1-1-90dea9a57f7a4c49891e9533ea08967a.jpg"
@@ -3268,59 +3421,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273598/moo-shu-chicken/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Moo Shu Chicken</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons cold water, divided\n\n\n3 teaspoons sesame oil, divided\n\n\n2 teaspoons cornstarch\n\n\n1 pound chicken breast tenderloins, cut into thin strips\n\n\n2 tablespoons hoisin sauce\n\n\n2 tablespoons oyster sauce\n\n\n2 teaspoons soy sauce\n\n\n2 teaspoons vegetable oil, divided\n\n\n2 large eggs, beaten\n\n\n3 cups shredded cabbage or coleslaw mix\n\n\n1 (4 ounce) can sliced shiitake mushrooms, drained\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon sherry\n\n\n3  green onions, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 tablespoons cold water, divided\n\n\n3 teaspoons sesame oil, divided\n\n\n2 teaspoons cornstarch\n\n\n1 pound chicken breast tenderloins, cut into thin strips\n\n\n2 tablespoons hoisin sauce\n\n\n2 tablespoons oyster sauce\n\n\n2 teaspoons soy sauce\n\n\n2 teaspoons vegetable oil, divided\n\n\n2 large eggs, beaten\n\n\n3 cups shredded cabbage or coleslaw mix\n\n\n1 (4 ounce) can sliced shiitake mushrooms, drained\n\n\n2 cloves garlic, minced\n\n\n1 tablespoon sherry\n\n\n3  green onions, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk 2 tablespoons water, 2 teaspoons sesame oil, and cornstarch together in a large bowl. Add chicken, toss to coat, and set aside."},{"recipe_directions":"Combine remaining 4 tablespoons water and 1 teaspoon sesame oil in a separate bowl. Whisk in hoisin sauce, oyster sauce, and soy sauce until well combined; set sauce aside."},{"recipe_directions":"Heat 1 teaspoon oil in a skillet over medium heat. Add eggs and cook for 3 minutes; flip and cook until firm and set, about 3 minutes more. Transfer to a cutting board and slice into thin strips."},{"recipe_directions":"Add marinated chicken to the skillet and cook over medium-high heat for 6 minutes. Flip and cook until golden brown on the outside and the juices run clear, about 6 minutes more; transfer to a plate."},{"recipe_directions":"Heat remaining 1 teaspoon oil in the skillet over medium-high heat. Add cabbage, shiitake mushrooms, garlic, and sherry; cook until cabbage starts to wilt, about 2 minutes. Add chicken, sliced egg, and reserved sauce to the skillet; cook, stirring occasionally, until sauce has thickened, about 5 minutes. Toss in green onions and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"319\nCalories\n\n\n14g \nFat\n\n\n17g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699641718-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gzLABkfbs3U5g7t538XYNqONp_k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6711379-eea5599400eb44c282ed47b56ac5cf84.jpg"
@@ -3333,59 +3482,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/146579/general-tao-chicken/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>General Tao Chicken</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds skinless, boneless chicken breast halves - cut into bite-size pieces\n\n\n¼ cup cornstarch\n\n\n2 large eggs\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n6 tablespoons all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup vegetable oil"},{"recipe_ingredients":"½ cup chopped green onion\n\n\n2 tablespoons grated fresh ginger root\n\n\n4 teaspoons sesame oil\n\n\n½ cup water\n\n\n½ cup white sugar\n\n\n¼ cup distilled white vinegar\n\n\n2 tablespoons cornstarch\n\n\n2 tablespoons soy sauce\n\n\n¼ cup oyster sauce\n\n\n¼ cup ketchup"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds skinless, boneless chicken breast halves - cut into bite-size pieces\n\n\n¼ cup cornstarch\n\n\n2 large eggs\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n6 tablespoons all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup vegetable oil'}, {'recipe_ingredients': '½ cup chopped green onion\n\n\n2 tablespoons grated fresh ginger root\n\n\n4 teaspoons sesame oil\n\n\n½ cup water\n\n\n½ cup white sugar\n\n\n¼ cup distilled white vinegar\n\n\n2 tablespoons cornstarch\n\n\n2 tablespoons soy sauce\n\n\n¼ cup oyster sauce\n\n\n¼ cup ketchup'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Coat chicken pieces with cornstarch in a bowl; set aside."},{"recipe_directions":"Beat eggs, salt, and pepper in a mixing bowl until combined. Stir in flour and baking powder until no large lumps remain. Mix in chicken pieces until evenly coated."},{"recipe_directions":"Heat vegetable oil in a large skillet or wok over high heat. Cook chicken in hot oil until golden brown and no longer pink on the inside, about 12 minutes. Set chicken aside; keep warm."},{"recipe_directions":"Make sauce: Reduce heat to medium-high; add green onion, ginger, and sesame oil to the skillet. Cook and stir until onion is limp and ginger begins to brown, about 1 minute. Pour in water, sugar, and vinegar; bring to a boil."},{"recipe_directions":"Dissolve cornstarch in soy sauce in a small bowl and stir into vinegar mixture along with oyster sauce and ketchup. Cook until sauce has thickened and is no longer cloudy. Stir in chicken; simmer until heated through."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Chinese"}]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"522\nCalories\n\n\n27g \nFat\n\n\n35g \nCarbs\n\n\n35g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699641720-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1902/world-cuisine/asian/chinese/main-dishes/chicken/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BNKrKQi4NSGKIeKI67HwOH6vdDs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/5102314-29bf03dca56243958e72053838bc4391.jpg"
@@ -3398,42 +3543,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8919/grilled-asian-chicken/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Grilled Asian Chicken</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup soy sauce\n\n\n2 tablespoons honey\n\n\n4 teaspoons sesame oil\n\n\n2 cloves garlic, crushed\n\n\n3 slices fresh ginger root\n\n\n4  skinless, boneless chicken breast halves"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup soy sauce\n\n\n2 tablespoons honey\n\n\n4 teaspoons sesame oil\n\n\n2 cloves garlic, crushed\n\n\n3 slices fresh ginger root\n\n\n4  skinless, boneless chicken breast halves'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine soy sauce, honey, sesame oil, garlic, and ginger in a small microwave-safe bowl; heat in the microwave on medium power for 1 minute, then stir. Heat again for 30 seconds, watching closely to prevent boiling."},{"recipe_directions":"Place chicken breasts in a shallow dish. Pour soy sauce mixture over top and set aside to marinate for 15 minutes."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Meanwhile, remove chicken from marinade; transfer marinade into a small saucepan and bring to a boil. Reduce heat to low and simmer until thick, about 1 minute. Set aside for basting."},{"recipe_directions":"Cook chicken on the preheated grill, basting frequently with reserved marinade, until golden brown on all sides and chicken is no longer pink in the center, about 6 to 8 minutes per side. An instant-read meat thermometer inserted into the thickest piece should read at least 160 degrees F (70 degrees C)."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Chicken"},{"recipe_tags":"Chicken Breast"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"217\nCalories\n\n\n8g \nFat\n\n\n11g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>